--- a/skra.xlsx
+++ b/skra.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="17">
   <si>
     <t>október</t>
   </si>
@@ -553,10 +553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:FI355"/>
+  <dimension ref="A1:FC356"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -597,5461 +597,5471 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C4" s="9">
-        <v>636.20000000000005</v>
+        <v>634.6</v>
       </c>
       <c r="D4" s="10">
-        <v>641</v>
+        <v>639.1</v>
       </c>
       <c r="E4" s="10">
-        <v>625.9</v>
+        <v>625.70000000000005</v>
       </c>
       <c r="F4" s="11">
-        <v>596.29999999999995</v>
+        <v>594.5</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" s="9">
-        <v>632.9</v>
+        <v>636.20000000000005</v>
       </c>
       <c r="D5" s="10">
-        <v>635.9</v>
+        <v>641</v>
       </c>
       <c r="E5" s="10">
-        <v>629.1</v>
+        <v>625.9</v>
       </c>
       <c r="F5" s="11">
-        <v>593.5</v>
+        <v>596.29999999999995</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" s="9">
-        <v>629.20000000000005</v>
+        <v>632.9</v>
       </c>
       <c r="D6" s="10">
-        <v>631.6</v>
+        <v>635.9</v>
       </c>
       <c r="E6" s="10">
-        <v>627.4</v>
+        <v>629.1</v>
       </c>
       <c r="F6" s="11">
-        <v>589.79999999999995</v>
+        <v>593.5</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" s="9">
-        <v>625.70000000000005</v>
+        <v>629.20000000000005</v>
       </c>
       <c r="D7" s="10">
-        <v>628.29999999999995</v>
+        <v>631.6</v>
       </c>
       <c r="E7" s="10">
-        <v>623.1</v>
+        <v>627.4</v>
       </c>
       <c r="F7" s="11">
-        <v>587.1</v>
+        <v>589.79999999999995</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" s="9">
-        <v>625.1</v>
+        <v>625.70000000000005</v>
       </c>
       <c r="D8" s="10">
-        <v>629.5</v>
+        <v>628.29999999999995</v>
       </c>
       <c r="E8" s="10">
-        <v>616.29999999999995</v>
+        <v>623.1</v>
       </c>
       <c r="F8" s="11">
-        <v>586.1</v>
+        <v>587.1</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" s="9">
-        <v>624.1</v>
+        <v>625.1</v>
       </c>
       <c r="D9" s="10">
-        <v>627.6</v>
+        <v>629.5</v>
       </c>
       <c r="E9" s="10">
-        <v>619.20000000000005</v>
+        <v>616.29999999999995</v>
       </c>
       <c r="F9" s="11">
-        <v>585.29999999999995</v>
+        <v>586.1</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" s="9">
-        <v>622.29999999999995</v>
+        <v>624.1</v>
       </c>
       <c r="D10" s="10">
-        <v>625.9</v>
+        <v>627.6</v>
       </c>
       <c r="E10" s="10">
-        <v>617</v>
+        <v>619.20000000000005</v>
       </c>
       <c r="F10" s="11">
-        <v>583.5</v>
+        <v>585.29999999999995</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" s="9">
-        <v>620.20000000000005</v>
+        <v>622.29999999999995</v>
       </c>
       <c r="D11" s="10">
-        <v>623.5</v>
+        <v>625.9</v>
       </c>
       <c r="E11" s="10">
-        <v>616.4</v>
+        <v>617</v>
       </c>
       <c r="F11" s="11">
-        <v>581.5</v>
+        <v>583.5</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="9">
+        <v>620.20000000000005</v>
+      </c>
+      <c r="D12" s="10">
+        <v>623.5</v>
+      </c>
+      <c r="E12" s="10">
+        <v>616.4</v>
+      </c>
+      <c r="F12" s="11">
+        <v>581.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C13" s="9">
         <v>616.70000000000005</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D13" s="10">
         <v>619.9</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E13" s="10">
         <v>613.20000000000005</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F13" s="11">
         <v>578.4</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
         <v>2019</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C14" s="9">
         <v>623</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D14" s="10">
         <v>626</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E14" s="10">
         <v>620.5</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F14" s="11">
         <v>584.79999999999995</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="12">
-        <v>620.79999999999995</v>
-      </c>
-      <c r="D14" s="10">
-        <v>623.4</v>
-      </c>
-      <c r="E14" s="10">
-        <v>618.9</v>
-      </c>
-      <c r="F14" s="11">
-        <v>582.29999999999995</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C15" s="12">
-        <v>619.9</v>
+        <v>620.79999999999995</v>
       </c>
       <c r="D15" s="10">
-        <v>623</v>
+        <v>623.4</v>
       </c>
       <c r="E15" s="10">
-        <v>616.6</v>
+        <v>618.9</v>
       </c>
       <c r="F15" s="11">
-        <v>581.29999999999995</v>
+        <v>582.29999999999995</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C16" s="12">
-        <v>613.79999999999995</v>
+        <v>619.9</v>
       </c>
       <c r="D16" s="10">
-        <v>618.20000000000005</v>
+        <v>623</v>
       </c>
       <c r="E16" s="10">
-        <v>606.1</v>
+        <v>616.6</v>
       </c>
       <c r="F16" s="11">
-        <v>575.4</v>
+        <v>581.29999999999995</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" s="12">
-        <v>611.29999999999995</v>
+        <v>613.79999999999995</v>
       </c>
       <c r="D17" s="10">
-        <v>614</v>
+        <v>618.20000000000005</v>
       </c>
       <c r="E17" s="10">
-        <v>609.5</v>
+        <v>606.1</v>
       </c>
       <c r="F17" s="11">
-        <v>573.1</v>
+        <v>575.4</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C18" s="12">
-        <v>607.5</v>
-      </c>
-      <c r="D18" s="13">
-        <v>609.6</v>
+        <v>611.29999999999995</v>
+      </c>
+      <c r="D18" s="10">
+        <v>614</v>
       </c>
       <c r="E18" s="10">
-        <v>608.4</v>
+        <v>609.5</v>
       </c>
       <c r="F18" s="11">
-        <v>569.9</v>
+        <v>573.1</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C19" s="12">
-        <v>607.9</v>
+        <v>607.5</v>
       </c>
       <c r="D19" s="13">
         <v>609.6</v>
       </c>
       <c r="E19" s="10">
-        <v>610.4</v>
+        <v>608.4</v>
       </c>
       <c r="F19" s="11">
-        <v>570.70000000000005</v>
-      </c>
-      <c r="G19" s="14"/>
+        <v>569.9</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="9">
-        <v>606</v>
-      </c>
-      <c r="D20" s="10">
-        <v>608.6</v>
+        <v>3</v>
+      </c>
+      <c r="C20" s="12">
+        <v>607.9</v>
+      </c>
+      <c r="D20" s="13">
+        <v>609.6</v>
       </c>
       <c r="E20" s="10">
-        <v>605.29999999999995</v>
+        <v>610.4</v>
       </c>
       <c r="F20" s="11">
-        <v>568.4</v>
-      </c>
+        <v>570.70000000000005</v>
+      </c>
+      <c r="G20" s="14"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C21" s="9">
-        <v>600.9</v>
+        <v>606</v>
       </c>
       <c r="D21" s="10">
-        <v>604.9</v>
+        <v>608.6</v>
       </c>
       <c r="E21" s="10">
-        <v>595.29999999999995</v>
+        <v>605.29999999999995</v>
       </c>
       <c r="F21" s="11">
-        <v>564.29999999999995</v>
+        <v>568.4</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C22" s="9">
-        <v>598.79999999999995</v>
+        <v>600.9</v>
       </c>
       <c r="D22" s="10">
-        <v>604.79999999999995</v>
+        <v>604.9</v>
       </c>
       <c r="E22" s="10">
-        <v>587.1</v>
+        <v>595.29999999999995</v>
       </c>
       <c r="F22" s="11">
-        <v>561.70000000000005</v>
+        <v>564.29999999999995</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C23" s="9">
-        <v>594.6</v>
+        <v>598.79999999999995</v>
       </c>
       <c r="D23" s="10">
-        <v>602.5</v>
+        <v>604.79999999999995</v>
       </c>
       <c r="E23" s="10">
-        <v>578.20000000000005</v>
+        <v>587.1</v>
       </c>
       <c r="F23" s="11">
-        <v>558.79999999999995</v>
+        <v>561.70000000000005</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="9">
+        <v>594.6</v>
+      </c>
+      <c r="D24" s="10">
+        <v>602.5</v>
+      </c>
+      <c r="E24" s="10">
+        <v>578.20000000000005</v>
+      </c>
+      <c r="F24" s="11">
+        <v>558.79999999999995</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B25" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C25" s="9">
         <v>594.9</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D25" s="10">
         <v>601.29999999999995</v>
       </c>
-      <c r="E24" s="10">
+      <c r="E25" s="10">
         <v>584.9</v>
       </c>
-      <c r="F24" s="11">
+      <c r="F25" s="11">
         <v>558.1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
         <v>2018</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C26" s="9">
         <v>592.1</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D26" s="10">
         <v>597.20000000000005</v>
       </c>
-      <c r="E25" s="10">
+      <c r="E26" s="10">
         <v>586.4</v>
       </c>
-      <c r="F25" s="11">
+      <c r="F26" s="11">
         <v>555.5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B26" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26" s="9">
-        <v>586.29999999999995</v>
-      </c>
-      <c r="D26" s="10">
-        <v>590.79999999999995</v>
-      </c>
-      <c r="E26" s="10">
-        <v>582.4</v>
-      </c>
-      <c r="F26" s="11">
-        <v>550.6</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C27" s="9">
-        <v>585.1</v>
+        <v>586.29999999999995</v>
       </c>
       <c r="D27" s="10">
-        <v>588.4</v>
+        <v>590.79999999999995</v>
       </c>
       <c r="E27" s="10">
-        <v>584.9</v>
+        <v>582.4</v>
       </c>
       <c r="F27" s="11">
-        <v>548.5</v>
+        <v>550.6</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C28" s="9">
-        <v>589.4</v>
+        <v>585.1</v>
       </c>
       <c r="D28" s="10">
-        <v>594</v>
+        <v>588.4</v>
       </c>
       <c r="E28" s="10">
-        <v>585.79999999999995</v>
+        <v>584.9</v>
       </c>
       <c r="F28" s="11">
-        <v>553</v>
+        <v>548.5</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" s="9">
-        <v>588.4</v>
+        <v>589.4</v>
       </c>
       <c r="D29" s="10">
-        <v>593.6</v>
+        <v>594</v>
       </c>
       <c r="E29" s="10">
-        <v>584</v>
+        <v>585.79999999999995</v>
       </c>
       <c r="F29" s="11">
-        <v>551.79999999999995</v>
+        <v>553</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C30" s="9">
-        <v>583.6</v>
+        <v>588.4</v>
       </c>
       <c r="D30" s="10">
-        <v>590.6</v>
+        <v>593.6</v>
       </c>
       <c r="E30" s="10">
-        <v>573.79999999999995</v>
+        <v>584</v>
       </c>
       <c r="F30" s="11">
-        <v>547.6</v>
+        <v>551.79999999999995</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C31" s="9">
-        <v>578</v>
+        <v>583.6</v>
       </c>
       <c r="D31" s="10">
-        <v>587.5</v>
+        <v>590.6</v>
       </c>
       <c r="E31" s="10">
-        <v>560.29999999999995</v>
+        <v>573.79999999999995</v>
       </c>
       <c r="F31" s="11">
-        <v>542.70000000000005</v>
+        <v>547.6</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C32" s="9">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="D32" s="10">
-        <v>587</v>
+        <v>587.5</v>
       </c>
       <c r="E32" s="10">
-        <v>553.9</v>
+        <v>560.29999999999995</v>
       </c>
       <c r="F32" s="11">
-        <v>540.9</v>
+        <v>542.70000000000005</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C33" s="9">
-        <v>574.6</v>
+        <v>576</v>
       </c>
       <c r="D33" s="10">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E33" s="10">
-        <v>545</v>
+        <v>553.9</v>
       </c>
       <c r="F33" s="11">
-        <v>539.20000000000005</v>
+        <v>540.9</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C34" s="9">
-        <v>564.20000000000005</v>
+        <v>574.6</v>
       </c>
       <c r="D34" s="10">
-        <v>575.79999999999995</v>
+        <v>588</v>
       </c>
       <c r="E34" s="10">
-        <v>540.70000000000005</v>
+        <v>545</v>
       </c>
       <c r="F34" s="11">
-        <v>528.79999999999995</v>
+        <v>539.20000000000005</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C35" s="9">
-        <v>552.1</v>
+        <v>564.20000000000005</v>
       </c>
       <c r="D35" s="10">
-        <v>561.4</v>
+        <v>575.79999999999995</v>
       </c>
       <c r="E35" s="10">
-        <v>534.9</v>
+        <v>540.70000000000005</v>
       </c>
       <c r="F35" s="11">
-        <v>517.70000000000005</v>
+        <v>528.79999999999995</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="9">
+        <v>552.1</v>
+      </c>
+      <c r="D36" s="10">
+        <v>561.4</v>
+      </c>
+      <c r="E36" s="10">
+        <v>534.9</v>
+      </c>
+      <c r="F36" s="11">
+        <v>517.70000000000005</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B37" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C36" s="9">
+      <c r="C37" s="9">
         <v>537.70000000000005</v>
       </c>
-      <c r="D36" s="10">
+      <c r="D37" s="10">
         <v>547.70000000000005</v>
       </c>
-      <c r="E36" s="10">
+      <c r="E37" s="10">
         <v>517.6</v>
       </c>
-      <c r="F36" s="11">
+      <c r="F37" s="11">
         <v>504.2</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="1">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
         <v>2017</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C37" s="9">
+      <c r="C38" s="9">
         <v>524.79999999999995</v>
       </c>
-      <c r="D37" s="10">
+      <c r="D38" s="10">
         <v>533.5</v>
       </c>
-      <c r="E37" s="10">
+      <c r="E38" s="10">
         <v>509</v>
       </c>
-      <c r="F37" s="11">
+      <c r="F38" s="11">
         <v>492</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B38" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C38" s="9">
-        <v>515.70000000000005</v>
-      </c>
-      <c r="D38" s="10">
-        <v>524.6</v>
-      </c>
-      <c r="E38" s="10">
-        <v>499.7</v>
-      </c>
-      <c r="F38" s="11">
-        <v>483.6</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C39" s="9">
-        <v>508.2</v>
+        <v>515.70000000000005</v>
       </c>
       <c r="D39" s="10">
-        <v>517.1</v>
+        <v>524.6</v>
       </c>
       <c r="E39" s="10">
-        <v>491.6</v>
+        <v>499.7</v>
       </c>
       <c r="F39" s="11">
-        <v>476.8</v>
+        <v>483.6</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C40" s="9">
-        <v>501.4</v>
+        <v>508.2</v>
       </c>
       <c r="D40" s="10">
-        <v>507.7</v>
+        <v>517.1</v>
       </c>
       <c r="E40" s="10">
-        <v>492.4</v>
+        <v>491.6</v>
       </c>
       <c r="F40" s="11">
-        <v>470.4</v>
+        <v>476.8</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B41" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C41" s="9">
-        <v>491.8</v>
+        <v>501.4</v>
       </c>
       <c r="D41" s="10">
-        <v>498.7</v>
+        <v>507.7</v>
       </c>
       <c r="E41" s="10">
-        <v>481.9</v>
+        <v>492.4</v>
       </c>
       <c r="F41" s="11">
-        <v>461.2</v>
+        <v>470.4</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C42" s="9">
-        <v>490.2</v>
+        <v>491.8</v>
       </c>
       <c r="D42" s="10">
         <v>498.7</v>
       </c>
       <c r="E42" s="10">
-        <v>474.9</v>
+        <v>481.9</v>
       </c>
       <c r="F42" s="11">
-        <v>459.7</v>
+        <v>461.2</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C43" s="9">
-        <v>485.8</v>
+        <v>490.2</v>
       </c>
       <c r="D43" s="10">
-        <v>494.2</v>
+        <v>498.7</v>
       </c>
       <c r="E43" s="10">
-        <v>470.6</v>
+        <v>474.9</v>
       </c>
       <c r="F43" s="11">
-        <v>456.1</v>
+        <v>459.7</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C44" s="9">
-        <v>475.3</v>
+        <v>485.8</v>
       </c>
       <c r="D44" s="10">
-        <v>483.5</v>
+        <v>494.2</v>
       </c>
       <c r="E44" s="10">
-        <v>460.2</v>
+        <v>470.6</v>
       </c>
       <c r="F44" s="11">
-        <v>445.7</v>
+        <v>456.1</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C45" s="9">
-        <v>465.1</v>
+        <v>475.3</v>
       </c>
       <c r="D45" s="10">
-        <v>472.8</v>
+        <v>483.5</v>
       </c>
       <c r="E45" s="10">
-        <v>451.9</v>
+        <v>460.2</v>
       </c>
       <c r="F45" s="11">
-        <v>436.3</v>
+        <v>445.7</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B46" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C46" s="9">
-        <v>459.8</v>
+        <v>465.1</v>
       </c>
       <c r="D46" s="10">
-        <v>467.5</v>
+        <v>472.8</v>
       </c>
       <c r="E46" s="10">
-        <v>444.8</v>
+        <v>451.9</v>
       </c>
       <c r="F46" s="11">
-        <v>431.3</v>
+        <v>436.3</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C47" s="9">
-        <v>456.5</v>
+        <v>459.8</v>
       </c>
       <c r="D47" s="10">
-        <v>463</v>
+        <v>467.5</v>
       </c>
       <c r="E47" s="10">
-        <v>445.1</v>
+        <v>444.8</v>
       </c>
       <c r="F47" s="11">
-        <v>428.4</v>
+        <v>431.3</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B48" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" s="9">
+        <v>456.5</v>
+      </c>
+      <c r="D48" s="10">
+        <v>463</v>
+      </c>
+      <c r="E48" s="10">
+        <v>445.1</v>
+      </c>
+      <c r="F48" s="11">
+        <v>428.4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B49" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C48" s="9">
+      <c r="C49" s="9">
         <v>453.2</v>
       </c>
-      <c r="D48" s="10">
+      <c r="D49" s="10">
         <v>461.5</v>
       </c>
-      <c r="E48" s="10">
+      <c r="E49" s="10">
         <v>435.8</v>
       </c>
-      <c r="F48" s="11">
+      <c r="F49" s="11">
         <v>425.4</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="1">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
         <v>2016</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B50" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C49" s="9">
+      <c r="C50" s="9">
         <v>451.4</v>
       </c>
-      <c r="D49" s="10">
+      <c r="D50" s="10">
         <v>458.7</v>
       </c>
-      <c r="E49" s="10">
+      <c r="E50" s="10">
         <v>437</v>
       </c>
-      <c r="F49" s="11">
+      <c r="F50" s="11">
         <v>424.1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B50" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C50" s="9">
-        <v>448.5</v>
-      </c>
-      <c r="D50" s="10">
-        <v>454.9</v>
-      </c>
-      <c r="E50" s="10">
-        <v>436.6</v>
-      </c>
-      <c r="F50" s="11">
-        <v>421.6</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B51" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C51" s="9">
-        <v>442.5</v>
+        <v>448.5</v>
       </c>
       <c r="D51" s="10">
-        <v>447.4</v>
+        <v>454.9</v>
       </c>
       <c r="E51" s="10">
-        <v>435.2</v>
+        <v>436.6</v>
       </c>
       <c r="F51" s="11">
-        <v>417.3</v>
+        <v>421.6</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B52" s="1" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C52" s="9">
-        <v>441.2</v>
+        <v>442.5</v>
       </c>
       <c r="D52" s="10">
-        <v>446.9</v>
+        <v>447.4</v>
       </c>
       <c r="E52" s="10">
-        <v>431.3</v>
+        <v>435.2</v>
       </c>
       <c r="F52" s="11">
-        <v>415.3</v>
+        <v>417.3</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B53" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C53" s="9">
-        <v>438.5</v>
+        <v>441.2</v>
       </c>
       <c r="D53" s="10">
-        <v>444.2</v>
+        <v>446.9</v>
       </c>
       <c r="E53" s="10">
-        <v>428.6</v>
+        <v>431.3</v>
       </c>
       <c r="F53" s="11">
-        <v>412.9</v>
+        <v>415.3</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B54" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C54" s="9">
-        <v>433.3</v>
+        <v>438.5</v>
       </c>
       <c r="D54" s="10">
-        <v>438.5</v>
+        <v>444.2</v>
       </c>
       <c r="E54" s="10">
-        <v>425</v>
+        <v>428.6</v>
       </c>
       <c r="F54" s="11">
-        <v>408.1</v>
+        <v>412.9</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B55" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C55" s="9">
-        <v>432.3</v>
+        <v>433.3</v>
       </c>
       <c r="D55" s="10">
-        <v>435.2</v>
+        <v>438.5</v>
       </c>
       <c r="E55" s="10">
-        <v>430.7</v>
+        <v>425</v>
       </c>
       <c r="F55" s="11">
-        <v>407.1</v>
+        <v>408.1</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B56" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C56" s="9">
-        <v>428.5</v>
+        <v>432.3</v>
       </c>
       <c r="D56" s="10">
-        <v>430.3</v>
+        <v>435.2</v>
       </c>
       <c r="E56" s="10">
-        <v>431.3</v>
+        <v>430.7</v>
       </c>
       <c r="F56" s="11">
-        <v>403.6</v>
+        <v>407.1</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B57" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C57" s="9">
         <v>428.5</v>
       </c>
       <c r="D57" s="10">
-        <v>430.6</v>
+        <v>430.3</v>
       </c>
       <c r="E57" s="10">
-        <v>429.5</v>
+        <v>431.3</v>
       </c>
       <c r="F57" s="11">
-        <v>403.3</v>
+        <v>403.6</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B58" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C58" s="9">
-        <v>423.9</v>
+        <v>428.5</v>
       </c>
       <c r="D58" s="10">
-        <v>426.1</v>
+        <v>430.6</v>
       </c>
       <c r="E58" s="10">
-        <v>424.6</v>
+        <v>429.5</v>
       </c>
       <c r="F58" s="11">
-        <v>398.8</v>
+        <v>403.3</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B59" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C59" s="9">
-        <v>424.9</v>
+        <v>423.9</v>
       </c>
       <c r="D59" s="10">
-        <v>425.8</v>
+        <v>426.1</v>
       </c>
       <c r="E59" s="10">
-        <v>429.6</v>
+        <v>424.6</v>
       </c>
       <c r="F59" s="11">
-        <v>399.9</v>
+        <v>398.8</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B60" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60" s="9">
+        <v>424.9</v>
+      </c>
+      <c r="D60" s="10">
+        <v>425.8</v>
+      </c>
+      <c r="E60" s="10">
+        <v>429.6</v>
+      </c>
+      <c r="F60" s="11">
+        <v>399.9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B61" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C60" s="9">
+      <c r="C61" s="9">
         <v>423.5</v>
       </c>
-      <c r="D60" s="10">
+      <c r="D61" s="10">
         <v>424.4</v>
       </c>
-      <c r="E60" s="10">
+      <c r="E61" s="10">
         <v>428.3</v>
       </c>
-      <c r="F60" s="11">
+      <c r="F61" s="11">
         <v>399.4</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" s="1">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
         <v>2015</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B62" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C61" s="9">
+      <c r="C62" s="9">
         <v>416.1</v>
       </c>
-      <c r="D61" s="10">
+      <c r="D62" s="10">
         <v>415.9</v>
       </c>
-      <c r="E61" s="10">
+      <c r="E62" s="10">
         <v>424.3</v>
       </c>
-      <c r="F61" s="11">
+      <c r="F62" s="11">
         <v>392.7</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B62" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C62" s="9">
-        <v>411.9</v>
-      </c>
-      <c r="D62" s="10">
-        <v>412.3</v>
-      </c>
-      <c r="E62" s="10">
-        <v>418.2</v>
-      </c>
-      <c r="F62" s="11">
-        <v>388.3</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B63" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C63" s="9">
-        <v>403.7</v>
+        <v>411.9</v>
       </c>
       <c r="D63" s="10">
-        <v>407.7</v>
+        <v>412.3</v>
       </c>
       <c r="E63" s="10">
-        <v>398.4</v>
+        <v>418.2</v>
       </c>
       <c r="F63" s="11">
-        <v>380.8</v>
+        <v>388.3</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B64" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C64" s="9">
+        <v>403.7</v>
+      </c>
+      <c r="D64" s="10">
+        <v>407.7</v>
+      </c>
+      <c r="E64" s="10">
+        <v>398.4</v>
+      </c>
+      <c r="F64" s="11">
+        <v>380.8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:159" x14ac:dyDescent="0.2">
+      <c r="B65" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C64" s="9">
+      <c r="C65" s="9">
         <v>401.1</v>
       </c>
-      <c r="D64" s="10">
+      <c r="D65" s="10">
         <v>405.3</v>
       </c>
-      <c r="E64" s="10">
+      <c r="E65" s="10">
         <v>395.7</v>
       </c>
-      <c r="F64" s="11">
+      <c r="F65" s="11">
         <v>377.9</v>
       </c>
     </row>
-    <row r="65" spans="1:165" x14ac:dyDescent="0.2">
-      <c r="B65" s="1" t="s">
+    <row r="66" spans="1:159" x14ac:dyDescent="0.2">
+      <c r="B66" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C65" s="9">
+      <c r="C66" s="9">
         <v>401.2</v>
       </c>
-      <c r="D65" s="10">
+      <c r="D66" s="10">
         <v>405.9</v>
       </c>
-      <c r="E65" s="10">
+      <c r="E66" s="10">
         <v>394.6</v>
       </c>
-      <c r="F65" s="11">
+      <c r="F66" s="11">
         <v>378.3</v>
       </c>
     </row>
-    <row r="66" spans="1:165" x14ac:dyDescent="0.2">
-      <c r="B66" s="1" t="s">
+    <row r="67" spans="1:159" x14ac:dyDescent="0.2">
+      <c r="B67" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C66" s="9">
+      <c r="C67" s="9">
         <v>400.8</v>
       </c>
-      <c r="D66" s="10">
+      <c r="D67" s="10">
         <v>404.6</v>
       </c>
-      <c r="E66" s="10">
+      <c r="E67" s="10">
         <v>397.4</v>
       </c>
-      <c r="F66" s="11">
+      <c r="F67" s="11">
         <v>378</v>
       </c>
     </row>
-    <row r="67" spans="1:165" x14ac:dyDescent="0.2">
-      <c r="B67" s="1" t="s">
+    <row r="68" spans="1:159" x14ac:dyDescent="0.2">
+      <c r="B68" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C67" s="9">
+      <c r="C68" s="9">
         <v>390.8</v>
       </c>
-      <c r="D67" s="10">
+      <c r="D68" s="10">
         <v>388.4</v>
       </c>
-      <c r="E67" s="10">
+      <c r="E68" s="10">
         <v>406.2</v>
       </c>
-      <c r="F67" s="11">
+      <c r="F68" s="11">
         <v>370</v>
       </c>
     </row>
-    <row r="68" spans="1:165" x14ac:dyDescent="0.2">
-      <c r="B68" s="1" t="s">
+    <row r="69" spans="1:159" x14ac:dyDescent="0.2">
+      <c r="B69" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C68" s="9">
+      <c r="C69" s="9">
         <v>389.7</v>
       </c>
-      <c r="D68" s="10">
+      <c r="D69" s="10">
         <v>393.3</v>
       </c>
-      <c r="E68" s="10">
+      <c r="E69" s="10">
         <v>386.7</v>
       </c>
-      <c r="F68" s="11">
+      <c r="F69" s="11">
         <v>368</v>
       </c>
     </row>
-    <row r="69" spans="1:165" x14ac:dyDescent="0.2">
-      <c r="B69" s="1" t="s">
+    <row r="70" spans="1:159" x14ac:dyDescent="0.2">
+      <c r="B70" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C69" s="9">
+      <c r="C70" s="9">
         <v>392.9</v>
       </c>
-      <c r="D69" s="10">
+      <c r="D70" s="10">
         <v>393.4</v>
       </c>
-      <c r="E69" s="10">
+      <c r="E70" s="10">
         <v>399.3</v>
       </c>
-      <c r="F69" s="11">
+      <c r="F70" s="11">
         <v>371.4</v>
       </c>
     </row>
-    <row r="70" spans="1:165" x14ac:dyDescent="0.2">
-      <c r="B70" s="1" t="s">
+    <row r="71" spans="1:159" x14ac:dyDescent="0.2">
+      <c r="B71" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C70" s="9">
+      <c r="C71" s="9">
         <v>393.4</v>
       </c>
-      <c r="D70" s="10">
+      <c r="D71" s="10">
         <v>392.6</v>
       </c>
-      <c r="E70" s="10">
+      <c r="E71" s="10">
         <v>404</v>
       </c>
-      <c r="F70" s="11">
+      <c r="F71" s="11">
         <v>372</v>
       </c>
     </row>
-    <row r="71" spans="1:165" x14ac:dyDescent="0.2">
-      <c r="B71" s="1" t="s">
+    <row r="72" spans="1:159" x14ac:dyDescent="0.2">
+      <c r="B72" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C71" s="9">
+      <c r="C72" s="9">
         <v>390.5</v>
       </c>
-      <c r="D71" s="10">
+      <c r="D72" s="10">
         <v>389.1</v>
       </c>
-      <c r="E71" s="10">
+      <c r="E72" s="10">
         <v>403.2</v>
       </c>
-      <c r="F71" s="11">
+      <c r="F72" s="11">
         <v>369.6</v>
       </c>
     </row>
-    <row r="72" spans="1:165" x14ac:dyDescent="0.2">
-      <c r="B72" s="1" t="s">
+    <row r="73" spans="1:159" x14ac:dyDescent="0.2">
+      <c r="B73" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C72" s="9">
+      <c r="C73" s="9">
         <v>382.2</v>
       </c>
-      <c r="D72" s="10">
+      <c r="D73" s="10">
         <v>380.2</v>
       </c>
-      <c r="E72" s="10">
+      <c r="E73" s="10">
         <v>396.2</v>
       </c>
-      <c r="F72" s="11">
+      <c r="F73" s="11">
         <v>361.4</v>
       </c>
-      <c r="H72" s="10"/>
-      <c r="I72" s="10"/>
-      <c r="J72" s="10"/>
-      <c r="K72" s="11"/>
-      <c r="N72" s="9"/>
-      <c r="O72" s="10"/>
-      <c r="P72" s="10"/>
-      <c r="Q72" s="11"/>
-      <c r="T72" s="9"/>
-      <c r="U72" s="10"/>
-      <c r="V72" s="10"/>
-      <c r="W72" s="11"/>
-      <c r="Z72" s="9"/>
-      <c r="AA72" s="10"/>
-      <c r="AB72" s="10"/>
-      <c r="AC72" s="11"/>
-      <c r="AF72" s="9"/>
-      <c r="AG72" s="10"/>
-      <c r="AH72" s="10"/>
-      <c r="AI72" s="11"/>
-      <c r="AL72" s="9"/>
-      <c r="AM72" s="10"/>
-      <c r="AN72" s="10"/>
-      <c r="AO72" s="11"/>
-      <c r="AR72" s="9"/>
-      <c r="AS72" s="10"/>
-      <c r="AT72" s="10"/>
-      <c r="AU72" s="11"/>
-      <c r="AX72" s="9"/>
-      <c r="AY72" s="10"/>
-      <c r="AZ72" s="10"/>
-      <c r="BA72" s="11"/>
-      <c r="BD72" s="9"/>
-      <c r="BE72" s="10"/>
-      <c r="BF72" s="10"/>
-      <c r="BG72" s="11"/>
-      <c r="BJ72" s="9"/>
-      <c r="BK72" s="10"/>
-      <c r="BL72" s="10"/>
-      <c r="BM72" s="11"/>
-      <c r="BP72" s="9"/>
-      <c r="BQ72" s="10"/>
-      <c r="BR72" s="10"/>
-      <c r="BS72" s="11"/>
-      <c r="BV72" s="9"/>
-      <c r="BW72" s="10"/>
-      <c r="BX72" s="10"/>
-      <c r="BY72" s="11"/>
-      <c r="CB72" s="9"/>
-      <c r="CC72" s="10"/>
-      <c r="CD72" s="10"/>
-      <c r="CE72" s="11"/>
-      <c r="CH72" s="9"/>
-      <c r="CI72" s="10"/>
-      <c r="CJ72" s="10"/>
-      <c r="CK72" s="11"/>
-      <c r="CN72" s="9"/>
-      <c r="CO72" s="10"/>
-      <c r="CP72" s="10"/>
-      <c r="CQ72" s="11"/>
-      <c r="CT72" s="9"/>
-      <c r="CU72" s="10"/>
-      <c r="CV72" s="10"/>
-      <c r="CW72" s="11"/>
-      <c r="CZ72" s="9"/>
-      <c r="DA72" s="10"/>
-      <c r="DB72" s="10"/>
-      <c r="DC72" s="11"/>
-      <c r="DF72" s="9"/>
-      <c r="DG72" s="10"/>
-      <c r="DH72" s="10"/>
-      <c r="DI72" s="11"/>
-      <c r="DL72" s="9"/>
-      <c r="DM72" s="10"/>
-      <c r="DN72" s="10"/>
-      <c r="DO72" s="11"/>
-      <c r="DR72" s="9"/>
-      <c r="DS72" s="10"/>
-      <c r="DT72" s="10"/>
-      <c r="DU72" s="11"/>
-      <c r="DX72" s="9"/>
-      <c r="DY72" s="10"/>
-      <c r="DZ72" s="10"/>
-      <c r="EA72" s="11"/>
-      <c r="ED72" s="9"/>
-      <c r="EE72" s="10"/>
-      <c r="EF72" s="10"/>
-      <c r="EG72" s="11"/>
-      <c r="EJ72" s="9"/>
-      <c r="EK72" s="10"/>
-      <c r="EL72" s="10"/>
-      <c r="EM72" s="11"/>
-      <c r="EP72" s="9"/>
-      <c r="EQ72" s="10"/>
-      <c r="ER72" s="10"/>
-      <c r="ES72" s="11"/>
-      <c r="EV72" s="9"/>
-      <c r="EW72" s="10"/>
-      <c r="EX72" s="10"/>
-      <c r="EY72" s="11"/>
-      <c r="FB72" s="9"/>
-      <c r="FC72" s="10"/>
-      <c r="FD72" s="10"/>
-      <c r="FE72" s="11"/>
-      <c r="FH72" s="9"/>
-      <c r="FI72" s="10"/>
-    </row>
-    <row r="73" spans="1:165" x14ac:dyDescent="0.2">
-      <c r="A73" s="1">
+      <c r="H73" s="10"/>
+      <c r="I73" s="10"/>
+      <c r="J73" s="10"/>
+      <c r="K73" s="11"/>
+      <c r="N73" s="9"/>
+      <c r="O73" s="10"/>
+      <c r="P73" s="10"/>
+      <c r="Q73" s="11"/>
+      <c r="T73" s="9"/>
+      <c r="U73" s="10"/>
+      <c r="V73" s="10"/>
+      <c r="W73" s="11"/>
+      <c r="Z73" s="9"/>
+      <c r="AA73" s="10"/>
+      <c r="AB73" s="10"/>
+      <c r="AC73" s="11"/>
+      <c r="AF73" s="9"/>
+      <c r="AG73" s="10"/>
+      <c r="AH73" s="10"/>
+      <c r="AI73" s="11"/>
+      <c r="AL73" s="9"/>
+      <c r="AM73" s="10"/>
+      <c r="AN73" s="10"/>
+      <c r="AO73" s="11"/>
+      <c r="AR73" s="9"/>
+      <c r="AS73" s="10"/>
+      <c r="AT73" s="10"/>
+      <c r="AU73" s="11"/>
+      <c r="AX73" s="9"/>
+      <c r="AY73" s="10"/>
+      <c r="AZ73" s="10"/>
+      <c r="BA73" s="11"/>
+      <c r="BD73" s="9"/>
+      <c r="BE73" s="10"/>
+      <c r="BF73" s="10"/>
+      <c r="BG73" s="11"/>
+      <c r="BJ73" s="9"/>
+      <c r="BK73" s="10"/>
+      <c r="BL73" s="10"/>
+      <c r="BM73" s="11"/>
+      <c r="BP73" s="9"/>
+      <c r="BQ73" s="10"/>
+      <c r="BR73" s="10"/>
+      <c r="BS73" s="11"/>
+      <c r="BV73" s="9"/>
+      <c r="BW73" s="10"/>
+      <c r="BX73" s="10"/>
+      <c r="BY73" s="11"/>
+      <c r="CB73" s="9"/>
+      <c r="CC73" s="10"/>
+      <c r="CD73" s="10"/>
+      <c r="CE73" s="11"/>
+      <c r="CH73" s="9"/>
+      <c r="CI73" s="10"/>
+      <c r="CJ73" s="10"/>
+      <c r="CK73" s="11"/>
+      <c r="CN73" s="9"/>
+      <c r="CO73" s="10"/>
+      <c r="CP73" s="10"/>
+      <c r="CQ73" s="11"/>
+      <c r="CT73" s="9"/>
+      <c r="CU73" s="10"/>
+      <c r="CV73" s="10"/>
+      <c r="CW73" s="11"/>
+      <c r="CZ73" s="9"/>
+      <c r="DA73" s="10"/>
+      <c r="DB73" s="10"/>
+      <c r="DC73" s="11"/>
+      <c r="DF73" s="9"/>
+      <c r="DG73" s="10"/>
+      <c r="DH73" s="10"/>
+      <c r="DI73" s="11"/>
+      <c r="DL73" s="9"/>
+      <c r="DM73" s="10"/>
+      <c r="DN73" s="10"/>
+      <c r="DO73" s="11"/>
+      <c r="DR73" s="9"/>
+      <c r="DS73" s="10"/>
+      <c r="DT73" s="10"/>
+      <c r="DU73" s="11"/>
+      <c r="DX73" s="9"/>
+      <c r="DY73" s="10"/>
+      <c r="DZ73" s="10"/>
+      <c r="EA73" s="11"/>
+      <c r="ED73" s="9"/>
+      <c r="EE73" s="10"/>
+      <c r="EF73" s="10"/>
+      <c r="EG73" s="11"/>
+      <c r="EJ73" s="9"/>
+      <c r="EK73" s="10"/>
+      <c r="EL73" s="10"/>
+      <c r="EM73" s="11"/>
+      <c r="EP73" s="9"/>
+      <c r="EQ73" s="10"/>
+      <c r="ER73" s="10"/>
+      <c r="ES73" s="11"/>
+      <c r="EV73" s="9"/>
+      <c r="EW73" s="10"/>
+      <c r="EX73" s="10"/>
+      <c r="EY73" s="11"/>
+      <c r="FB73" s="9"/>
+      <c r="FC73" s="10"/>
+    </row>
+    <row r="74" spans="1:159" x14ac:dyDescent="0.2">
+      <c r="A74" s="1">
         <v>2014</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B74" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C73" s="9">
+      <c r="C74" s="9">
         <v>376.8</v>
       </c>
-      <c r="D73" s="10">
+      <c r="D74" s="10">
         <v>374.7</v>
       </c>
-      <c r="E73" s="10">
+      <c r="E74" s="10">
         <v>391.1</v>
       </c>
-      <c r="F73" s="11">
+      <c r="F74" s="11">
         <v>356.4</v>
       </c>
     </row>
-    <row r="74" spans="1:165" x14ac:dyDescent="0.2">
-      <c r="B74" s="1" t="s">
+    <row r="75" spans="1:159" x14ac:dyDescent="0.2">
+      <c r="B75" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C74" s="9">
+      <c r="C75" s="9">
         <v>375.7</v>
       </c>
-      <c r="D74" s="10">
+      <c r="D75" s="10">
         <v>375.2</v>
       </c>
-      <c r="E74" s="10">
+      <c r="E75" s="10">
         <v>385.3</v>
       </c>
-      <c r="F74" s="11">
+      <c r="F75" s="11">
         <v>355.4</v>
       </c>
     </row>
-    <row r="75" spans="1:165" x14ac:dyDescent="0.2">
-      <c r="B75" s="1" t="s">
+    <row r="76" spans="1:159" x14ac:dyDescent="0.2">
+      <c r="B76" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C75" s="9">
+      <c r="C76" s="9">
         <v>377.5</v>
       </c>
-      <c r="D75" s="10">
+      <c r="D76" s="10">
         <v>377.8</v>
       </c>
-      <c r="E75" s="10">
+      <c r="E76" s="10">
         <v>384.6</v>
       </c>
-      <c r="F75" s="11">
+      <c r="F76" s="11">
         <v>357.4</v>
       </c>
     </row>
-    <row r="76" spans="1:165" x14ac:dyDescent="0.2">
-      <c r="B76" s="1" t="s">
+    <row r="77" spans="1:159" x14ac:dyDescent="0.2">
+      <c r="B77" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C76" s="9">
+      <c r="C77" s="9">
         <v>376.2</v>
       </c>
-      <c r="D76" s="10">
+      <c r="D77" s="10">
         <v>373.9</v>
       </c>
-      <c r="E76" s="10">
+      <c r="E77" s="10">
         <v>391.3</v>
       </c>
-      <c r="F76" s="11">
+      <c r="F77" s="11">
         <v>356.3</v>
       </c>
     </row>
-    <row r="77" spans="1:165" x14ac:dyDescent="0.2">
-      <c r="B77" s="1" t="s">
+    <row r="78" spans="1:159" x14ac:dyDescent="0.2">
+      <c r="B78" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C77" s="9">
+      <c r="C78" s="9">
         <v>370.1</v>
       </c>
-      <c r="D77" s="10">
+      <c r="D78" s="10">
         <v>369.1</v>
       </c>
-      <c r="E77" s="10">
+      <c r="E78" s="10">
         <v>381.4</v>
       </c>
-      <c r="F77" s="11">
+      <c r="F78" s="11">
         <v>350.65</v>
       </c>
     </row>
-    <row r="78" spans="1:165" x14ac:dyDescent="0.2">
-      <c r="B78" s="1" t="s">
+    <row r="79" spans="1:159" x14ac:dyDescent="0.2">
+      <c r="B79" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C78" s="9">
+      <c r="C79" s="9">
         <v>366.8</v>
       </c>
-      <c r="D78" s="10">
+      <c r="D79" s="10">
         <v>361.2</v>
       </c>
-      <c r="E78" s="10">
+      <c r="E79" s="10">
         <v>391.2</v>
       </c>
-      <c r="F78" s="11">
+      <c r="F79" s="11">
         <v>347.3</v>
       </c>
     </row>
-    <row r="79" spans="1:165" x14ac:dyDescent="0.2">
-      <c r="B79" s="1" t="s">
+    <row r="80" spans="1:159" x14ac:dyDescent="0.2">
+      <c r="B80" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C79" s="9">
+      <c r="C80" s="9">
         <v>367.3</v>
       </c>
-      <c r="D79" s="10">
+      <c r="D80" s="10">
         <v>361.9</v>
       </c>
-      <c r="E79" s="10">
+      <c r="E80" s="10">
         <v>391.3</v>
       </c>
-      <c r="F79" s="11">
+      <c r="F80" s="11">
         <v>347.7</v>
-      </c>
-    </row>
-    <row r="80" spans="1:165" x14ac:dyDescent="0.2">
-      <c r="B80" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C80" s="9">
-        <v>364.9</v>
-      </c>
-      <c r="D80" s="10">
-        <v>360.9</v>
-      </c>
-      <c r="E80" s="10">
-        <v>385</v>
-      </c>
-      <c r="F80" s="11">
-        <v>346.2</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B81" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C81" s="9">
-        <v>358.4</v>
+        <v>364.9</v>
       </c>
       <c r="D81" s="10">
-        <v>354</v>
+        <v>360.9</v>
       </c>
       <c r="E81" s="10">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="F81" s="11">
-        <v>340.7</v>
+        <v>346.2</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B82" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C82" s="9">
-        <v>353.8</v>
+        <v>358.4</v>
       </c>
       <c r="D82" s="10">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="E82" s="10">
-        <v>378.6</v>
+        <v>379</v>
       </c>
       <c r="F82" s="11">
-        <v>336.8</v>
+        <v>340.7</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B83" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C83" s="9">
-        <v>351.5</v>
+        <v>353.8</v>
       </c>
       <c r="D83" s="10">
-        <v>346.4</v>
+        <v>348</v>
       </c>
       <c r="E83" s="10">
-        <v>374.8</v>
+        <v>378.6</v>
       </c>
       <c r="F83" s="11">
-        <v>334.7</v>
+        <v>336.8</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B84" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C84" s="9">
         <v>351.5</v>
       </c>
       <c r="D84" s="10">
+        <v>346.4</v>
+      </c>
+      <c r="E84" s="10">
+        <v>374.8</v>
+      </c>
+      <c r="F84" s="11">
+        <v>334.7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B85" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C85" s="9">
+        <v>351.5</v>
+      </c>
+      <c r="D85" s="10">
         <v>347.1</v>
       </c>
-      <c r="E84" s="10">
+      <c r="E85" s="10">
         <v>372</v>
       </c>
-      <c r="F84" s="11">
+      <c r="F85" s="11">
         <v>334.8</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A85" s="1">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86" s="1">
         <v>2013</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B86" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C85" s="9">
+      <c r="C86" s="9">
         <v>350.7</v>
       </c>
-      <c r="D85" s="10">
+      <c r="D86" s="10">
         <v>347.4</v>
       </c>
-      <c r="E85" s="10">
+      <c r="E86" s="10">
         <v>367.9</v>
       </c>
-      <c r="F85" s="11">
+      <c r="F86" s="11">
         <v>333.2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B86" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C86" s="9">
-        <v>351.7</v>
-      </c>
-      <c r="D86" s="10">
-        <v>347.6</v>
-      </c>
-      <c r="E86" s="10">
-        <v>371</v>
-      </c>
-      <c r="F86" s="11">
-        <v>333.9</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B87" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C87" s="9">
-        <v>350.2</v>
+        <v>351.7</v>
       </c>
       <c r="D87" s="10">
-        <v>343.1</v>
+        <v>347.6</v>
       </c>
       <c r="E87" s="10">
-        <v>378.6</v>
+        <v>371</v>
       </c>
       <c r="F87" s="11">
-        <v>332.7</v>
+        <v>333.9</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B88" s="1" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C88" s="9">
-        <v>348.8</v>
+        <v>350.2</v>
       </c>
       <c r="D88" s="10">
-        <v>341.2</v>
+        <v>343.1</v>
       </c>
       <c r="E88" s="10">
-        <v>378.9</v>
+        <v>378.6</v>
       </c>
       <c r="F88" s="11">
-        <v>331</v>
+        <v>332.7</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B89" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C89" s="9">
-        <v>345.8</v>
+        <v>348.8</v>
       </c>
       <c r="D89" s="10">
-        <v>339.1</v>
+        <v>341.2</v>
       </c>
       <c r="E89" s="10">
-        <v>372.9</v>
+        <v>378.9</v>
       </c>
       <c r="F89" s="11">
-        <v>328.1</v>
+        <v>331</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B90" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C90" s="9">
-        <v>343.5</v>
+        <v>345.8</v>
       </c>
       <c r="D90" s="10">
-        <v>336.5</v>
+        <v>339.1</v>
       </c>
       <c r="E90" s="10">
-        <v>371.6</v>
+        <v>372.9</v>
       </c>
       <c r="F90" s="11">
-        <v>326.60000000000002</v>
+        <v>328.1</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B91" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C91" s="9">
-        <v>344.3</v>
+        <v>343.5</v>
       </c>
       <c r="D91" s="10">
-        <v>339.2</v>
+        <v>336.5</v>
       </c>
       <c r="E91" s="10">
-        <v>366.5</v>
+        <v>371.6</v>
       </c>
       <c r="F91" s="11">
-        <v>327.5</v>
+        <v>326.60000000000002</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B92" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C92" s="9">
-        <v>341.3</v>
+        <v>344.3</v>
       </c>
       <c r="D92" s="10">
-        <v>335.2</v>
+        <v>339.2</v>
       </c>
       <c r="E92" s="10">
-        <v>366.9</v>
+        <v>366.5</v>
       </c>
       <c r="F92" s="11">
-        <v>325</v>
+        <v>327.5</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B93" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C93" s="9">
-        <v>336.4</v>
+        <v>341.3</v>
       </c>
       <c r="D93" s="10">
-        <v>331.1</v>
+        <v>335.2</v>
       </c>
       <c r="E93" s="10">
-        <v>359.3</v>
+        <v>366.9</v>
       </c>
       <c r="F93" s="11">
-        <v>320.39999999999998</v>
+        <v>325</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B94" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C94" s="9">
-        <v>335.3</v>
+        <v>336.4</v>
       </c>
       <c r="D94" s="10">
-        <v>327</v>
+        <v>331.1</v>
       </c>
       <c r="E94" s="10">
-        <v>367.5</v>
+        <v>359.3</v>
       </c>
       <c r="F94" s="11">
-        <v>319.10000000000002</v>
+        <v>320.39999999999998</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B95" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C95" s="9">
-        <v>336.2</v>
+        <v>335.3</v>
       </c>
       <c r="D95" s="10">
-        <v>327.8</v>
+        <v>327</v>
       </c>
       <c r="E95" s="10">
-        <v>368.9</v>
+        <v>367.5</v>
       </c>
       <c r="F95" s="11">
-        <v>319.39999999999998</v>
+        <v>319.10000000000002</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B96" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C96" s="9">
+        <v>336.2</v>
+      </c>
+      <c r="D96" s="10">
+        <v>327.8</v>
+      </c>
+      <c r="E96" s="10">
+        <v>368.9</v>
+      </c>
+      <c r="F96" s="11">
+        <v>319.39999999999998</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B97" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C96" s="9">
+      <c r="C97" s="9">
         <v>332.2</v>
-      </c>
-      <c r="D96" s="10">
-        <v>324.89999999999998</v>
-      </c>
-      <c r="E96" s="10">
-        <v>361.3</v>
-      </c>
-      <c r="F96" s="11">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A97" s="1">
-        <v>2012</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C97" s="9">
-        <v>333</v>
       </c>
       <c r="D97" s="10">
         <v>324.89999999999998</v>
       </c>
       <c r="E97" s="10">
-        <v>364.9</v>
+        <v>361.3</v>
       </c>
       <c r="F97" s="11">
-        <v>316.7</v>
+        <v>316</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A98" s="1">
+        <v>2012</v>
+      </c>
       <c r="B98" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C98" s="9">
-        <v>332.5</v>
+        <v>333</v>
       </c>
       <c r="D98" s="10">
         <v>324.89999999999998</v>
       </c>
       <c r="E98" s="10">
-        <v>362.3</v>
+        <v>364.9</v>
       </c>
       <c r="F98" s="11">
-        <v>316.3</v>
+        <v>316.7</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B99" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C99" s="9">
-        <v>329.5</v>
+        <v>332.5</v>
       </c>
       <c r="D99" s="10">
-        <v>320</v>
+        <v>324.89999999999998</v>
       </c>
       <c r="E99" s="10">
-        <v>365</v>
+        <v>362.3</v>
       </c>
       <c r="F99" s="11">
-        <v>313.3</v>
+        <v>316.3</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B100" s="1" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C100" s="9">
         <v>329.5</v>
       </c>
       <c r="D100" s="10">
-        <v>321.7</v>
+        <v>320</v>
       </c>
       <c r="E100" s="10">
-        <v>359.8</v>
+        <v>365</v>
       </c>
       <c r="F100" s="11">
-        <v>313.39999999999998</v>
+        <v>313.3</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B101" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C101" s="9">
-        <v>326.10000000000002</v>
+        <v>329.5</v>
       </c>
       <c r="D101" s="10">
-        <v>316.89999999999998</v>
+        <v>321.7</v>
       </c>
       <c r="E101" s="10">
-        <v>361.5</v>
+        <v>359.8</v>
       </c>
       <c r="F101" s="11">
-        <v>309.60000000000002</v>
+        <v>313.39999999999998</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B102" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C102" s="9">
-        <v>321.8</v>
+        <v>326.10000000000002</v>
       </c>
       <c r="D102" s="10">
-        <v>312.10000000000002</v>
+        <v>316.89999999999998</v>
       </c>
       <c r="E102" s="10">
-        <v>358.2</v>
+        <v>361.5</v>
       </c>
       <c r="F102" s="11">
-        <v>305.5</v>
+        <v>309.60000000000002</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B103" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C103" s="9">
-        <v>320.8</v>
+        <v>321.8</v>
       </c>
       <c r="D103" s="10">
-        <v>311.3</v>
+        <v>312.10000000000002</v>
       </c>
       <c r="E103" s="10">
-        <v>357.2</v>
+        <v>358.2</v>
       </c>
       <c r="F103" s="11">
-        <v>304.8</v>
+        <v>305.5</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B104" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C104" s="9">
-        <v>321.2</v>
+        <v>320.8</v>
       </c>
       <c r="D104" s="10">
-        <v>312.8</v>
+        <v>311.3</v>
       </c>
       <c r="E104" s="10">
-        <v>354</v>
+        <v>357.2</v>
       </c>
       <c r="F104" s="11">
-        <v>305.8</v>
+        <v>304.8</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B105" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C105" s="9">
-        <v>319.60000000000002</v>
+        <v>321.2</v>
       </c>
       <c r="D105" s="10">
-        <v>313</v>
+        <v>312.8</v>
       </c>
       <c r="E105" s="10">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="F105" s="11">
-        <v>303.8</v>
+        <v>305.8</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B106" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C106" s="9">
-        <v>311.3</v>
+        <v>319.60000000000002</v>
       </c>
       <c r="D106" s="10">
-        <v>306.39999999999998</v>
+        <v>313</v>
       </c>
       <c r="E106" s="10">
-        <v>332</v>
+        <v>346</v>
       </c>
       <c r="F106" s="11">
-        <v>295.39999999999998</v>
+        <v>303.8</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B107" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C107" s="9">
-        <v>309.2</v>
+        <v>311.3</v>
       </c>
       <c r="D107" s="10">
-        <v>303.7</v>
+        <v>306.39999999999998</v>
       </c>
       <c r="E107" s="10">
-        <v>331.6</v>
+        <v>332</v>
       </c>
       <c r="F107" s="11">
-        <v>293.39999999999998</v>
+        <v>295.39999999999998</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B108" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C108" s="9">
+        <v>309.2</v>
+      </c>
+      <c r="D108" s="10">
+        <v>303.7</v>
+      </c>
+      <c r="E108" s="10">
+        <v>331.6</v>
+      </c>
+      <c r="F108" s="11">
+        <v>293.39999999999998</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B109" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C108" s="9">
+      <c r="C109" s="9">
         <v>308.10000000000002</v>
       </c>
-      <c r="D108" s="10">
+      <c r="D109" s="10">
         <v>301</v>
       </c>
-      <c r="E108" s="10">
+      <c r="E109" s="10">
         <v>335.8</v>
       </c>
-      <c r="F108" s="11">
+      <c r="F109" s="11">
         <v>292.89999999999998</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A109" s="1">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A110" s="1">
         <v>2011</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="B110" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C109" s="9">
+      <c r="C110" s="9">
         <v>304.89999999999998</v>
       </c>
-      <c r="D109" s="10">
+      <c r="D110" s="10">
         <v>297.5</v>
       </c>
-      <c r="E109" s="10">
+      <c r="E110" s="10">
         <v>333.9</v>
       </c>
-      <c r="F109" s="11">
+      <c r="F110" s="11">
         <v>290.3</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B110" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C110" s="9">
-        <v>302.60000000000002</v>
-      </c>
-      <c r="D110" s="10">
-        <v>294.39999999999998</v>
-      </c>
-      <c r="E110" s="10">
-        <v>334.5</v>
-      </c>
-      <c r="F110" s="11">
-        <v>292.2</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B111" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C111" s="9">
-        <v>306.3</v>
+        <v>302.60000000000002</v>
       </c>
       <c r="D111" s="10">
-        <v>298.2</v>
+        <v>294.39999999999998</v>
       </c>
       <c r="E111" s="10">
-        <v>338</v>
+        <v>334.5</v>
       </c>
       <c r="F111" s="11">
-        <v>295.2</v>
+        <v>292.2</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B112" s="1" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C112" s="9">
-        <v>306.5</v>
+        <v>306.3</v>
       </c>
       <c r="D112" s="10">
-        <v>297.60000000000002</v>
+        <v>298.2</v>
       </c>
       <c r="E112" s="10">
-        <v>341.4</v>
+        <v>338</v>
       </c>
       <c r="F112" s="11">
-        <v>297.8</v>
+        <v>295.2</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B113" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C113" s="9">
-        <v>303.89999999999998</v>
+        <v>306.5</v>
       </c>
       <c r="D113" s="10">
-        <v>296.2</v>
+        <v>297.60000000000002</v>
       </c>
       <c r="E113" s="10">
-        <v>334.5</v>
+        <v>341.4</v>
       </c>
       <c r="F113" s="11">
-        <v>296.2</v>
+        <v>297.8</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B114" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C114" s="9">
-        <v>302.8</v>
+        <v>303.89999999999998</v>
       </c>
       <c r="D114" s="10">
-        <v>296.60000000000002</v>
+        <v>296.2</v>
       </c>
       <c r="E114" s="10">
-        <v>327.5</v>
+        <v>334.5</v>
       </c>
       <c r="F114" s="11">
-        <v>293.3</v>
+        <v>296.2</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B115" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C115" s="9">
         <v>302.8</v>
       </c>
       <c r="D115" s="10">
-        <v>296.89999999999998</v>
+        <v>296.60000000000002</v>
       </c>
       <c r="E115" s="10">
-        <v>325.39999999999998</v>
+        <v>327.5</v>
       </c>
       <c r="F115" s="11">
-        <v>293.10000000000002</v>
+        <v>293.3</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B116" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C116" s="9">
-        <v>306.7</v>
+        <v>302.8</v>
       </c>
       <c r="D116" s="10">
-        <v>299.3</v>
+        <v>296.89999999999998</v>
       </c>
       <c r="E116" s="10">
-        <v>336.2</v>
+        <v>325.39999999999998</v>
       </c>
       <c r="F116" s="11">
-        <v>296.5</v>
+        <v>293.10000000000002</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B117" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C117" s="9">
-        <v>308.89999999999998</v>
+        <v>306.7</v>
       </c>
       <c r="D117" s="10">
-        <v>302.39999999999998</v>
+        <v>299.3</v>
       </c>
       <c r="E117" s="10">
-        <v>334.3</v>
+        <v>336.2</v>
       </c>
       <c r="F117" s="11">
-        <v>299.8</v>
+        <v>296.5</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B118" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C118" s="9">
-        <v>303</v>
+        <v>308.89999999999998</v>
       </c>
       <c r="D118" s="10">
-        <v>290.8</v>
+        <v>302.39999999999998</v>
       </c>
       <c r="E118" s="10">
-        <v>354.7</v>
+        <v>334.3</v>
       </c>
       <c r="F118" s="11">
-        <v>293.5</v>
+        <v>299.8</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B119" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C119" s="9">
-        <v>303.5</v>
+        <v>303</v>
       </c>
       <c r="D119" s="10">
-        <v>292.89999999999998</v>
+        <v>290.8</v>
       </c>
       <c r="E119" s="10">
-        <v>347.3</v>
+        <v>354.7</v>
       </c>
       <c r="F119" s="11">
-        <v>293</v>
+        <v>293.5</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B120" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C120" s="9">
+        <v>303.5</v>
+      </c>
+      <c r="D120" s="10">
+        <v>292.89999999999998</v>
+      </c>
+      <c r="E120" s="10">
+        <v>347.3</v>
+      </c>
+      <c r="F120" s="11">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B121" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C120" s="9">
+      <c r="C121" s="9">
         <v>302.10000000000002</v>
       </c>
-      <c r="D120" s="10">
+      <c r="D121" s="10">
         <v>292.7</v>
       </c>
-      <c r="E120" s="10">
+      <c r="E121" s="10">
         <v>340.8</v>
       </c>
-      <c r="F120" s="11">
+      <c r="F121" s="11">
         <v>291.7</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A121" s="1">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A122" s="1">
         <v>2010</v>
       </c>
-      <c r="B121" s="1" t="s">
+      <c r="B122" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C121" s="9">
+      <c r="C122" s="9">
         <v>303.3</v>
       </c>
-      <c r="D121" s="10">
+      <c r="D122" s="10">
         <v>295.7</v>
       </c>
-      <c r="E121" s="10">
+      <c r="E122" s="10">
         <v>333.7</v>
       </c>
-      <c r="F121" s="11">
+      <c r="F122" s="11">
         <v>294.7</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B122" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C122" s="9">
-        <v>302.10000000000002</v>
-      </c>
-      <c r="D122" s="10">
-        <v>296.60000000000002</v>
-      </c>
-      <c r="E122" s="10">
-        <v>323.10000000000002</v>
-      </c>
-      <c r="F122" s="11">
-        <v>294.39999999999998</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B123" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C123" s="9">
-        <v>309</v>
+        <v>302.10000000000002</v>
       </c>
       <c r="D123" s="10">
-        <v>300.60000000000002</v>
+        <v>296.60000000000002</v>
       </c>
       <c r="E123" s="10">
-        <v>343.1</v>
+        <v>323.10000000000002</v>
       </c>
       <c r="F123" s="11">
-        <v>298.8</v>
+        <v>294.39999999999998</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B124" s="1" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C124" s="9">
-        <v>313.7</v>
+        <v>309</v>
       </c>
       <c r="D124" s="10">
-        <v>303.8</v>
+        <v>300.60000000000002</v>
       </c>
       <c r="E124" s="10">
-        <v>353.7</v>
+        <v>343.1</v>
       </c>
       <c r="F124" s="11">
-        <v>304.2</v>
+        <v>298.8</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B125" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C125" s="9">
-        <v>313.89999999999998</v>
+        <v>313.7</v>
       </c>
       <c r="D125" s="10">
-        <v>302.5</v>
+        <v>303.8</v>
       </c>
       <c r="E125" s="10">
-        <v>359.7</v>
+        <v>353.7</v>
       </c>
       <c r="F125" s="11">
-        <v>303.7</v>
+        <v>304.2</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B126" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C126" s="9">
-        <v>314.10000000000002</v>
+        <v>313.89999999999998</v>
       </c>
       <c r="D126" s="10">
-        <v>302.3</v>
+        <v>302.5</v>
       </c>
       <c r="E126" s="10">
-        <v>361.5</v>
+        <v>359.7</v>
       </c>
       <c r="F126" s="11">
-        <v>302.89999999999998</v>
+        <v>303.7</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B127" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C127" s="9">
-        <v>311.7</v>
+        <v>314.10000000000002</v>
       </c>
       <c r="D127" s="10">
-        <v>301.3</v>
+        <v>302.3</v>
       </c>
       <c r="E127" s="10">
-        <v>353</v>
+        <v>361.5</v>
       </c>
       <c r="F127" s="11">
-        <v>300.7</v>
+        <v>302.89999999999998</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B128" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C128" s="9">
-        <v>310.7</v>
+        <v>311.7</v>
       </c>
       <c r="D128" s="10">
-        <v>296.60000000000002</v>
+        <v>301.3</v>
       </c>
       <c r="E128" s="10">
-        <v>365.9</v>
+        <v>353</v>
       </c>
       <c r="F128" s="11">
-        <v>298.10000000000002</v>
+        <v>300.7</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B129" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C129" s="9">
-        <v>312</v>
+        <v>310.7</v>
       </c>
       <c r="D129" s="10">
-        <v>301.10000000000002</v>
+        <v>296.60000000000002</v>
       </c>
       <c r="E129" s="10">
-        <v>354.6</v>
+        <v>365.9</v>
       </c>
       <c r="F129" s="11">
-        <v>301.10000000000002</v>
+        <v>298.10000000000002</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B130" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C130" s="9">
-        <v>314.2</v>
+        <v>312</v>
       </c>
       <c r="D130" s="10">
-        <v>306</v>
+        <v>301.10000000000002</v>
       </c>
       <c r="E130" s="10">
-        <v>346.4</v>
+        <v>354.6</v>
       </c>
       <c r="F130" s="11">
-        <v>301</v>
+        <v>301.10000000000002</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B131" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C131" s="9">
-        <v>322.60000000000002</v>
+        <v>314.2</v>
       </c>
       <c r="D131" s="10">
-        <v>313.10000000000002</v>
+        <v>306</v>
       </c>
       <c r="E131" s="10">
-        <v>359.8</v>
+        <v>346.4</v>
       </c>
       <c r="F131" s="11">
-        <v>308.2</v>
+        <v>301</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B132" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C132" s="9">
+        <v>322.60000000000002</v>
+      </c>
+      <c r="D132" s="10">
+        <v>313.10000000000002</v>
+      </c>
+      <c r="E132" s="10">
+        <v>359.8</v>
+      </c>
+      <c r="F132" s="11">
+        <v>308.2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B133" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C132" s="9">
+      <c r="C133" s="9">
         <v>335.5</v>
       </c>
-      <c r="D132" s="10">
+      <c r="D133" s="10">
         <v>327.2</v>
       </c>
-      <c r="E132" s="10">
+      <c r="E133" s="10">
         <v>368.1</v>
       </c>
-      <c r="F132" s="11">
+      <c r="F133" s="11">
         <v>320.5</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A133" s="1">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A134" s="1">
         <v>2009</v>
       </c>
-      <c r="B133" s="1" t="s">
+      <c r="B134" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C133" s="9">
+      <c r="C134" s="9">
         <v>337.6</v>
       </c>
-      <c r="D133" s="10">
+      <c r="D134" s="10">
         <v>327.5</v>
       </c>
-      <c r="E133" s="10">
+      <c r="E134" s="10">
         <v>376.8</v>
       </c>
-      <c r="F133" s="11">
+      <c r="F134" s="11">
         <v>320.39999999999998</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B134" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C134" s="9">
-        <v>343.2</v>
-      </c>
-      <c r="D134" s="10">
-        <v>332.4</v>
-      </c>
-      <c r="E134" s="10">
-        <v>385</v>
-      </c>
-      <c r="F134" s="11">
-        <v>325.60000000000002</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B135" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C135" s="9">
-        <v>347.7</v>
+        <v>343.2</v>
       </c>
       <c r="D135" s="10">
-        <v>336.3</v>
+        <v>332.4</v>
       </c>
       <c r="E135" s="10">
-        <v>391.9</v>
+        <v>385</v>
       </c>
       <c r="F135" s="11">
-        <v>330.8</v>
+        <v>325.60000000000002</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B136" s="1" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C136" s="9">
-        <v>348.7</v>
+        <v>347.7</v>
       </c>
       <c r="D136" s="10">
-        <v>338.8</v>
+        <v>336.3</v>
       </c>
       <c r="E136" s="10">
-        <v>386.8</v>
+        <v>391.9</v>
       </c>
       <c r="F136" s="11">
-        <v>337.4</v>
+        <v>330.8</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B137" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C137" s="9">
-        <v>349.4</v>
+        <v>348.7</v>
       </c>
       <c r="D137" s="10">
-        <v>339.2</v>
+        <v>338.8</v>
       </c>
       <c r="E137" s="10">
-        <v>388.8</v>
+        <v>386.8</v>
       </c>
       <c r="F137" s="11">
-        <v>338.5</v>
+        <v>337.4</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B138" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C138" s="9">
-        <v>350.1</v>
+        <v>349.4</v>
       </c>
       <c r="D138" s="10">
-        <v>339.8</v>
+        <v>339.2</v>
       </c>
       <c r="E138" s="10">
-        <v>389.8</v>
+        <v>388.8</v>
       </c>
       <c r="F138" s="11">
-        <v>339.7</v>
+        <v>338.5</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B139" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C139" s="9">
-        <v>351</v>
+        <v>350.1</v>
       </c>
       <c r="D139" s="10">
-        <v>340.5</v>
+        <v>339.8</v>
       </c>
       <c r="E139" s="10">
-        <v>391.9</v>
+        <v>389.8</v>
       </c>
       <c r="F139" s="11">
-        <v>340.7</v>
+        <v>339.7</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B140" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C140" s="9">
-        <v>348.3</v>
+        <v>351</v>
       </c>
       <c r="D140" s="10">
-        <v>337.9</v>
+        <v>340.5</v>
       </c>
       <c r="E140" s="10">
-        <v>388</v>
+        <v>391.9</v>
       </c>
       <c r="F140" s="11">
-        <v>340.2</v>
+        <v>340.7</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B141" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C141" s="9">
-        <v>348.5</v>
+        <v>348.3</v>
       </c>
       <c r="D141" s="10">
-        <v>340.1</v>
+        <v>337.9</v>
       </c>
       <c r="E141" s="10">
-        <v>381.3</v>
+        <v>388</v>
       </c>
       <c r="F141" s="11">
-        <v>334</v>
+        <v>340.2</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B142" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C142" s="9">
-        <v>346.7</v>
+        <v>348.5</v>
       </c>
       <c r="D142" s="10">
-        <v>336.2</v>
+        <v>340.1</v>
       </c>
       <c r="E142" s="10">
-        <v>386.8</v>
+        <v>381.3</v>
       </c>
       <c r="F142" s="11">
-        <v>331.7</v>
+        <v>334</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B143" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C143" s="9">
-        <v>352.7</v>
+        <v>346.7</v>
       </c>
       <c r="D143" s="10">
-        <v>345.1</v>
+        <v>336.2</v>
       </c>
       <c r="E143" s="10">
-        <v>382.9</v>
+        <v>386.8</v>
       </c>
       <c r="F143" s="11">
-        <v>338.9</v>
+        <v>331.7</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B144" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C144" s="9">
+        <v>352.7</v>
+      </c>
+      <c r="D144" s="10">
+        <v>345.1</v>
+      </c>
+      <c r="E144" s="10">
+        <v>382.9</v>
+      </c>
+      <c r="F144" s="11">
+        <v>338.9</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B145" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C144" s="9">
+      <c r="C145" s="9">
         <v>354.11263198008919</v>
       </c>
-      <c r="D144" s="10">
+      <c r="D145" s="10">
         <v>346.42345948140593</v>
       </c>
-      <c r="E144" s="10">
+      <c r="E145" s="10">
         <v>384.45723902043375</v>
       </c>
-      <c r="F144" s="11">
+      <c r="F145" s="11">
         <v>341.26495858414876</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A145" s="1">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A146" s="1">
         <v>2008</v>
       </c>
-      <c r="B145" s="1" t="s">
+      <c r="B146" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C145" s="9">
+      <c r="C146" s="9">
         <v>357.42846868830776</v>
       </c>
-      <c r="D145" s="10">
+      <c r="D146" s="10">
         <v>344.99421804052332</v>
       </c>
-      <c r="E145" s="10">
+      <c r="E146" s="10">
         <v>398.26806448652684</v>
       </c>
-      <c r="F145" s="11">
+      <c r="F146" s="11">
         <v>347.47442496674898</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B146" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C146" s="9">
-        <v>352.10399931578468</v>
-      </c>
-      <c r="D146" s="10">
-        <v>343.23031391855858</v>
-      </c>
-      <c r="E146" s="10">
-        <v>386.40711867140584</v>
-      </c>
-      <c r="F146" s="11">
-        <v>338.6</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B147" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C147" s="9">
-        <v>351.88782277018362</v>
+        <v>352.10399931578468</v>
       </c>
       <c r="D147" s="10">
-        <v>342.24537514016208</v>
+        <v>343.23031391855858</v>
       </c>
       <c r="E147" s="10">
-        <v>388.69828234452359</v>
+        <v>386.40711867140584</v>
       </c>
       <c r="F147" s="11">
-        <v>338.14482247078956</v>
+        <v>338.6</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B148" s="1" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C148" s="9">
-        <v>357.3</v>
+        <v>351.88782277018362</v>
       </c>
       <c r="D148" s="10">
-        <v>348.37011977684028</v>
+        <v>342.24537514016208</v>
       </c>
       <c r="E148" s="10">
-        <v>391.7690070385313</v>
+        <v>388.69828234452359</v>
       </c>
       <c r="F148" s="11">
-        <v>342.29908017030544</v>
+        <v>338.14482247078956</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B149" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C149" s="9">
-        <v>347.45745226907809</v>
+        <v>357.3</v>
       </c>
       <c r="D149" s="10">
-        <v>338.49104904523034</v>
+        <v>348.37011977684028</v>
       </c>
       <c r="E149" s="10">
-        <v>381.943620991616</v>
+        <v>391.7690070385313</v>
       </c>
       <c r="F149" s="11">
-        <v>331.95952580290975</v>
+        <v>342.29908017030544</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B150" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C150" s="9">
-        <v>344.7029928323787</v>
+        <v>347.45745226907809</v>
       </c>
       <c r="D150" s="10">
-        <v>335.46286250511503</v>
+        <v>338.49104904523034</v>
       </c>
       <c r="E150" s="10">
-        <v>380.02072437447015</v>
+        <v>381.943620991616</v>
       </c>
       <c r="F150" s="11">
-        <v>329.15563347693791</v>
+        <v>331.95952580290975</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B151" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C151" s="9">
-        <v>342.1</v>
+        <v>344.7029928323787</v>
       </c>
       <c r="D151" s="10">
-        <v>331.9</v>
+        <v>335.46286250511503</v>
       </c>
       <c r="E151" s="10">
-        <v>380.4</v>
+        <v>380.02072437447015</v>
       </c>
       <c r="F151" s="11">
-        <v>326.7</v>
+        <v>329.15563347693791</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B152" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C152" s="9">
-        <v>337.39791726192107</v>
+        <v>342.1</v>
       </c>
       <c r="D152" s="10">
-        <v>325.82188158839017</v>
+        <v>331.9</v>
       </c>
       <c r="E152" s="10">
-        <v>380.25451587071234</v>
+        <v>380.4</v>
       </c>
       <c r="F152" s="11">
-        <v>320.55515617352239</v>
+        <v>326.7</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B153" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C153" s="9">
-        <v>335.67968769132756</v>
+        <v>337.39791726192107</v>
       </c>
       <c r="D153" s="10">
-        <v>327.70906770796842</v>
+        <v>325.82188158839017</v>
       </c>
       <c r="E153" s="10">
-        <v>366.67163891680559</v>
+        <v>380.25451587071234</v>
       </c>
       <c r="F153" s="11">
-        <v>320.1941269758978</v>
+        <v>320.55515617352239</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B154" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C154" s="9">
-        <v>324.04276138846797</v>
+        <v>335.67968769132756</v>
       </c>
       <c r="D154" s="10">
-        <v>316.29414664877106</v>
+        <v>327.70906770796842</v>
       </c>
       <c r="E154" s="10">
-        <v>354.14220586021622</v>
+        <v>366.67163891680559</v>
       </c>
       <c r="F154" s="11">
-        <v>309.58060105335267</v>
+        <v>320.1941269758978</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B155" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C155" s="9">
-        <v>321.81385325679378</v>
+        <v>324.04276138846797</v>
       </c>
       <c r="D155" s="10">
-        <v>312.62039500518</v>
+        <v>316.29414664877106</v>
       </c>
       <c r="E155" s="10">
-        <v>356.57112291663401</v>
+        <v>354.14220586021622</v>
       </c>
       <c r="F155" s="11">
-        <v>308.04274804994725</v>
+        <v>309.58060105335267</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B156" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C156" s="9">
+        <v>321.81385325679378</v>
+      </c>
+      <c r="D156" s="10">
+        <v>312.62039500518</v>
+      </c>
+      <c r="E156" s="10">
+        <v>356.57112291663401</v>
+      </c>
+      <c r="F156" s="11">
+        <v>308.04274804994725</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B157" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C156" s="9">
+      <c r="C157" s="9">
         <v>314.1882795685105</v>
       </c>
-      <c r="D156" s="10">
+      <c r="D157" s="10">
         <v>308.42539158775617</v>
       </c>
-      <c r="E156" s="10">
+      <c r="E157" s="10">
         <v>337.65965771908708</v>
       </c>
-      <c r="F156" s="11">
+      <c r="F157" s="11">
         <v>300.73872601393845</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A157" s="1">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A158" s="1">
         <v>2007</v>
       </c>
-      <c r="B157" s="1" t="s">
+      <c r="B158" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C157" s="9">
+      <c r="C158" s="9">
         <v>313.4001252667635</v>
       </c>
-      <c r="D157" s="10">
+      <c r="D158" s="10">
         <v>305.04498027955094</v>
       </c>
-      <c r="E157" s="10">
+      <c r="E158" s="10">
         <v>345.44503383126266</v>
       </c>
-      <c r="F157" s="11">
+      <c r="F158" s="11">
         <v>301.71655958563798</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B158" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C158" s="9">
-        <v>306.30519952554772</v>
-      </c>
-      <c r="D158" s="10">
-        <v>298.03380119897957</v>
-      </c>
-      <c r="E158" s="10">
-        <v>338.01415961263064</v>
-      </c>
-      <c r="F158" s="11">
-        <v>292.70866043675187</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B159" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C159" s="9">
-        <v>308.4274648689788</v>
+        <v>306.30519952554772</v>
       </c>
       <c r="D159" s="10">
-        <v>303.60909004535432</v>
+        <v>298.03380119897957</v>
       </c>
       <c r="E159" s="10">
-        <v>328.89102199000263</v>
+        <v>338.01415961263064</v>
       </c>
       <c r="F159" s="11">
-        <v>294.00333008439151</v>
+        <v>292.70866043675187</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B160" s="1" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C160" s="9">
-        <v>306.14584225518644</v>
+        <v>308.4274648689788</v>
       </c>
       <c r="D160" s="10">
-        <v>298.72716792115091</v>
+        <v>303.60909004535432</v>
       </c>
       <c r="E160" s="10">
-        <v>334.99109627139444</v>
+        <v>328.89102199000263</v>
       </c>
       <c r="F160" s="11">
-        <v>291.68953334618982</v>
+        <v>294.00333008439151</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B161" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C161" s="9">
-        <v>313.05415525340504</v>
+        <v>306.14584225518644</v>
       </c>
       <c r="D161" s="10">
-        <v>304.03045922903874</v>
+        <v>298.72716792115091</v>
       </c>
       <c r="E161" s="10">
-        <v>346.17283029835852</v>
+        <v>334.99109627139444</v>
       </c>
       <c r="F161" s="11">
-        <v>299.86728872571479</v>
+        <v>291.68953334618982</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B162" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C162" s="9">
-        <v>311.00537141060499</v>
+        <v>313.05415525340504</v>
       </c>
       <c r="D162" s="10">
-        <v>303.19578086395984</v>
+        <v>304.03045922903874</v>
       </c>
       <c r="E162" s="10">
-        <v>341.23439507580315</v>
+        <v>346.17283029835852</v>
       </c>
       <c r="F162" s="11">
-        <v>297.040069222223</v>
+        <v>299.86728872571479</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B163" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C163" s="9">
-        <v>303.59842581486652</v>
+        <v>311.00537141060499</v>
       </c>
       <c r="D163" s="10">
-        <v>295.6298956388905</v>
+        <v>303.19578086395984</v>
       </c>
       <c r="E163" s="10">
-        <v>334.24128738151853</v>
+        <v>341.23439507580315</v>
       </c>
       <c r="F163" s="11">
-        <v>289.35084762503755</v>
+        <v>297.040069222223</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B164" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C164" s="9">
-        <v>308.96310536882743</v>
+        <v>303.59842581486652</v>
       </c>
       <c r="D164" s="10">
-        <v>299.65281787894423</v>
+        <v>295.6298956388905</v>
       </c>
       <c r="E164" s="10">
-        <v>344.14579003673492</v>
+        <v>334.24128738151853</v>
       </c>
       <c r="F164" s="11">
-        <v>294.88921338368385</v>
+        <v>289.35084762503755</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B165" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C165" s="9">
-        <v>307.14680610230528</v>
+        <v>308.96310536882743</v>
       </c>
       <c r="D165" s="10">
-        <v>298.59797776392224</v>
+        <v>299.65281787894423</v>
       </c>
       <c r="E165" s="10">
-        <v>339.71953507785224</v>
+        <v>344.14579003673492</v>
       </c>
       <c r="F165" s="11">
-        <v>290.42799665325066</v>
+        <v>294.88921338368385</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B166" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C166" s="9">
-        <v>307.69780391151352</v>
+        <v>307.14680610230528</v>
       </c>
       <c r="D166" s="10">
-        <v>299.31529017163899</v>
+        <v>298.59797776392224</v>
       </c>
       <c r="E166" s="10">
-        <v>339.9759830763299</v>
+        <v>339.71953507785224</v>
       </c>
       <c r="F166" s="11">
-        <v>291.21725283276146</v>
+        <v>290.42799665325066</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B167" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C167" s="9">
-        <v>304.23892779738009</v>
+        <v>307.69780391151352</v>
       </c>
       <c r="D167" s="10">
-        <v>297.21848215403941</v>
+        <v>299.31529017163899</v>
       </c>
       <c r="E167" s="10">
-        <v>331.71397477792016</v>
+        <v>339.9759830763299</v>
       </c>
       <c r="F167" s="11">
-        <v>287.52018062460786</v>
+        <v>291.21725283276146</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B168" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C168" s="9">
+        <v>304.23892779738009</v>
+      </c>
+      <c r="D168" s="10">
+        <v>297.21848215403941</v>
+      </c>
+      <c r="E168" s="10">
+        <v>331.71397477792016</v>
+      </c>
+      <c r="F168" s="11">
+        <v>287.52018062460786</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B169" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C168" s="9">
+      <c r="C169" s="9">
         <v>299.1004152144489</v>
       </c>
-      <c r="D168" s="10">
+      <c r="D169" s="10">
         <v>290.28404390973151</v>
       </c>
-      <c r="E168" s="10">
+      <c r="E169" s="10">
         <v>332.68366358517102</v>
       </c>
-      <c r="F168" s="11">
+      <c r="F169" s="11">
         <v>283.19931179474986</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A169" s="1">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A170" s="1">
         <v>2006</v>
       </c>
-      <c r="B169" s="1" t="s">
+      <c r="B170" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C169" s="15">
+      <c r="C170" s="15">
         <v>293.30309599242059</v>
       </c>
-      <c r="D169" s="3">
+      <c r="D170" s="3">
         <v>291.16652255347748</v>
       </c>
-      <c r="E169" s="3">
+      <c r="E170" s="3">
         <v>303.82116382123087</v>
       </c>
-      <c r="F169" s="16">
+      <c r="F170" s="16">
         <v>278.04537487477944</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B170" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C170" s="9">
-        <v>291.74480599652935</v>
-      </c>
-      <c r="D170" s="10">
-        <v>286.71652753050273</v>
-      </c>
-      <c r="E170" s="10">
-        <v>312.22384632753631</v>
-      </c>
-      <c r="F170" s="11">
-        <v>275.06378658868073</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B171" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C171" s="9">
-        <v>294.41884515103766</v>
+        <v>291.74480599652935</v>
       </c>
       <c r="D171" s="10">
-        <v>287.90903442183304</v>
+        <v>286.71652753050273</v>
       </c>
       <c r="E171" s="10">
-        <v>320.04362905915036</v>
+        <v>312.22384632753631</v>
       </c>
       <c r="F171" s="11">
-        <v>278.2304388631664</v>
+        <v>275.06378658868073</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B172" s="1" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C172" s="9">
-        <v>285.59772574176912</v>
+        <v>294.41884515103766</v>
       </c>
       <c r="D172" s="10">
-        <v>280.96633097419351</v>
+        <v>287.90903442183304</v>
       </c>
       <c r="E172" s="10">
-        <v>304.66755504632192</v>
+        <v>320.04362905915036</v>
       </c>
       <c r="F172" s="11">
-        <v>269.26033238670021</v>
+        <v>278.2304388631664</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B173" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C173" s="9">
-        <v>283.25654942431498</v>
-      </c>
-      <c r="D173" s="17">
-        <v>276.73513636887606</v>
+        <v>285.59772574176912</v>
+      </c>
+      <c r="D173" s="10">
+        <v>280.96633097419351</v>
       </c>
       <c r="E173" s="10">
-        <v>308.80125608995701</v>
+        <v>304.66755504632192</v>
       </c>
       <c r="F173" s="11">
-        <v>267.34016245913642</v>
+        <v>269.26033238670021</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B174" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C174" s="15">
-        <v>280.70690234164698</v>
-      </c>
-      <c r="D174" s="10">
-        <v>274.16667152178604</v>
+        <v>1</v>
+      </c>
+      <c r="C174" s="9">
+        <v>283.25654942431498</v>
+      </c>
+      <c r="D174" s="17">
+        <v>276.73513636887606</v>
       </c>
       <c r="E174" s="10">
-        <v>306.29133313925001</v>
+        <v>308.80125608995701</v>
       </c>
       <c r="F174" s="11">
-        <v>265.42038715795042</v>
+        <v>267.34016245913642</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B175" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C175" s="15">
-        <v>282.43215395743914</v>
-      </c>
-      <c r="D175" s="3">
-        <v>278.18763770067454</v>
+        <v>280.70690234164698</v>
+      </c>
+      <c r="D175" s="10">
+        <v>274.16667152178604</v>
       </c>
       <c r="E175" s="10">
-        <v>300.06438113163932</v>
+        <v>306.29133313925001</v>
       </c>
       <c r="F175" s="11">
-        <v>266.70014149386202</v>
+        <v>265.42038715795042</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B176" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C176" s="9">
-        <v>273.2</v>
-      </c>
-      <c r="D176" s="10">
-        <v>269.60000000000002</v>
+        <v>3</v>
+      </c>
+      <c r="C176" s="15">
+        <v>282.43215395743914</v>
+      </c>
+      <c r="D176" s="3">
+        <v>278.18763770067454</v>
       </c>
       <c r="E176" s="10">
-        <v>288.7</v>
+        <v>300.06438113163932</v>
       </c>
       <c r="F176" s="11">
-        <v>257.89999999999998</v>
+        <v>266.70014149386202</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B177" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C177" s="9">
-        <v>271.35561356960227</v>
+        <v>273.2</v>
       </c>
       <c r="D177" s="10">
-        <v>266.52439907175398</v>
+        <v>269.60000000000002</v>
       </c>
       <c r="E177" s="10">
-        <v>290.8405288410122</v>
+        <v>288.7</v>
       </c>
       <c r="F177" s="11">
-        <v>255.79636641121763</v>
+        <v>257.89999999999998</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B178" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C178" s="9">
-        <v>261.41929080773275</v>
+        <v>271.35561356960227</v>
       </c>
       <c r="D178" s="10">
-        <v>256.94789379645198</v>
+        <v>266.52439907175398</v>
       </c>
       <c r="E178" s="10">
-        <v>279.60473859534096</v>
+        <v>290.8405288410122</v>
       </c>
       <c r="F178" s="11">
-        <v>246.66382355356464</v>
+        <v>255.79636641121763</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B179" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C179" s="9">
-        <v>251.58839354086302</v>
+        <v>261.41929080773275</v>
       </c>
       <c r="D179" s="10">
-        <v>249.16645732205868</v>
+        <v>256.94789379645198</v>
       </c>
       <c r="E179" s="10">
-        <v>262.55673903279393</v>
+        <v>279.60473859534096</v>
       </c>
       <c r="F179" s="11">
-        <v>236.659972331652</v>
+        <v>246.66382355356464</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B180" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C180" s="9">
+        <v>251.58839354086302</v>
+      </c>
+      <c r="D180" s="10">
+        <v>249.16645732205868</v>
+      </c>
+      <c r="E180" s="10">
+        <v>262.55673903279393</v>
+      </c>
+      <c r="F180" s="11">
+        <v>236.659972331652</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B181" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C180" s="9">
+      <c r="C181" s="9">
         <v>245.71988019187151</v>
       </c>
-      <c r="D180" s="10">
+      <c r="D181" s="10">
         <v>244.88710033550555</v>
       </c>
-      <c r="E180" s="10">
+      <c r="E181" s="10">
         <v>251.28788143251523</v>
       </c>
-      <c r="F180" s="11">
+      <c r="F181" s="11">
         <v>230.96758483170535</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A181" s="1">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A182" s="1">
         <v>2005</v>
       </c>
-      <c r="B181" s="1" t="s">
+      <c r="B182" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C181" s="9">
+      <c r="C182" s="9">
         <v>234.12714530008142</v>
       </c>
-      <c r="D181" s="10">
+      <c r="D182" s="10">
         <v>232.08237159387227</v>
       </c>
-      <c r="E181" s="10">
+      <c r="E182" s="10">
         <v>243.95072364269501</v>
       </c>
-      <c r="F181" s="11">
+      <c r="F182" s="11">
         <v>219.55961070049631</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B182" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C182" s="9">
-        <v>222.69583644727018</v>
-      </c>
-      <c r="D182" s="10">
-        <v>220.04200209060784</v>
-      </c>
-      <c r="E182" s="10">
-        <v>234.52766568879531</v>
-      </c>
-      <c r="F182" s="11">
-        <v>208.68142662621565</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B183" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C183" s="9">
-        <v>217.29362714027155</v>
+        <v>222.69583644727018</v>
       </c>
       <c r="D183" s="10">
-        <v>215.77933683843705</v>
+        <v>220.04200209060784</v>
       </c>
       <c r="E183" s="10">
-        <v>225.49214466790886</v>
+        <v>234.52766568879531</v>
       </c>
       <c r="F183" s="11">
-        <v>203.92306776835414</v>
+        <v>208.68142662621565</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B184" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C184" s="15">
-        <v>209.31988134166519</v>
-      </c>
-      <c r="D184" s="3">
-        <v>208.5175079206243</v>
-      </c>
-      <c r="E184" s="3">
-        <v>214.9669610438857</v>
-      </c>
-      <c r="F184" s="4">
-        <v>196.67627439207644</v>
+        <v>11</v>
+      </c>
+      <c r="C184" s="9">
+        <v>217.29362714027155</v>
+      </c>
+      <c r="D184" s="10">
+        <v>215.77933683843705</v>
+      </c>
+      <c r="E184" s="10">
+        <v>225.49214466790886</v>
+      </c>
+      <c r="F184" s="11">
+        <v>203.92306776835414</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B185" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C185" s="15">
-        <v>206.69462995253758</v>
+        <v>209.31988134166519</v>
       </c>
       <c r="D185" s="3">
-        <v>205.98748747675813</v>
+        <v>208.5175079206243</v>
       </c>
       <c r="E185" s="3">
-        <v>210.93136331553251</v>
+        <v>214.9669610438857</v>
       </c>
       <c r="F185" s="4">
-        <v>193.89852093034193</v>
+        <v>196.67627439207644</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B186" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C186" s="15">
-        <v>200.00302252248929</v>
+        <v>206.69462995253758</v>
       </c>
       <c r="D186" s="3">
-        <v>200.57706353902387</v>
+        <v>205.98748747675813</v>
       </c>
       <c r="E186" s="3">
-        <v>200.82680267292832</v>
+        <v>210.93136331553251</v>
       </c>
       <c r="F186" s="4">
-        <v>187.55144405775798</v>
+        <v>193.89852093034193</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B187" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C187" s="9">
-        <v>202.62930028191914</v>
+        <v>2</v>
+      </c>
+      <c r="C187" s="15">
+        <v>200.00302252248929</v>
       </c>
       <c r="D187" s="3">
-        <v>202.6344773336323</v>
+        <v>200.57706353902387</v>
       </c>
       <c r="E187" s="3">
-        <v>202.89463095536894</v>
+        <v>200.82680267292832</v>
       </c>
       <c r="F187" s="4">
-        <v>190.91548786100509</v>
+        <v>187.55144405775798</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B188" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C188" s="9">
-        <v>196.83835135291301</v>
+        <v>202.62930028191914</v>
       </c>
       <c r="D188" s="3">
-        <v>197.94186953617773</v>
+        <v>202.6344773336323</v>
       </c>
       <c r="E188" s="3">
-        <v>194.77518861606089</v>
+        <v>202.89463095536894</v>
       </c>
       <c r="F188" s="4">
-        <v>185.43993608914874</v>
+        <v>190.91548786100509</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B189" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C189" s="15">
-        <v>195.98628596076472</v>
+        <v>4</v>
+      </c>
+      <c r="C189" s="9">
+        <v>196.83835135291301</v>
       </c>
       <c r="D189" s="3">
-        <v>199.45598027230477</v>
+        <v>197.94186953617773</v>
       </c>
       <c r="E189" s="3">
-        <v>188.34636468277196</v>
+        <v>194.77518861606089</v>
       </c>
       <c r="F189" s="4">
-        <v>182.12547812908488</v>
+        <v>185.43993608914874</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B190" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C190" s="15">
-        <v>194.94143978419126</v>
+        <v>195.98628596076472</v>
       </c>
       <c r="D190" s="3">
-        <v>196.9821738735647</v>
+        <v>199.45598027230477</v>
       </c>
       <c r="E190" s="3">
-        <v>191.3901473675775</v>
+        <v>188.34636468277196</v>
       </c>
       <c r="F190" s="4">
-        <v>181.31206466835434</v>
+        <v>182.12547812908488</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B191" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C191" s="15">
-        <v>190.27789111390473</v>
+        <v>194.94143978419126</v>
       </c>
       <c r="D191" s="3">
-        <v>191.81941660844666</v>
+        <v>196.9821738735647</v>
       </c>
       <c r="E191" s="3">
-        <v>187.36143140087742</v>
+        <v>191.3901473675775</v>
       </c>
       <c r="F191" s="4">
-        <v>179.33105109869169</v>
+        <v>181.31206466835434</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B192" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C192" s="15">
+        <v>190.27789111390473</v>
+      </c>
+      <c r="D192" s="3">
+        <v>191.81941660844666</v>
+      </c>
+      <c r="E192" s="3">
+        <v>187.36143140087742</v>
+      </c>
+      <c r="F192" s="4">
+        <v>179.33105109869169</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B193" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C192" s="15">
+      <c r="C193" s="15">
         <v>185.90721708956644</v>
       </c>
-      <c r="D192" s="3">
+      <c r="D193" s="3">
         <v>190.45923869921654</v>
       </c>
-      <c r="E192" s="3">
+      <c r="E193" s="3">
         <v>174.56345244986963</v>
       </c>
-      <c r="F192" s="4">
+      <c r="F193" s="4">
         <v>177.81283477971172</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A193" s="1">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A194" s="1">
         <v>2004</v>
       </c>
-      <c r="B193" s="1" t="s">
+      <c r="B194" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C193" s="15">
+      <c r="C194" s="15">
         <v>183.0674429854584</v>
       </c>
-      <c r="D193" s="3">
+      <c r="D194" s="3">
         <v>185.12354944000822</v>
       </c>
-      <c r="E193" s="3">
+      <c r="E194" s="3">
         <v>180.794378390823</v>
       </c>
-      <c r="F193" s="4">
+      <c r="F194" s="4">
         <v>174.84479021493229</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B194" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C194" s="15">
-        <v>180.55123910329797</v>
-      </c>
-      <c r="D194" s="3">
-        <v>183.52953173583597</v>
-      </c>
-      <c r="E194" s="3">
-        <v>173.68435438748367</v>
-      </c>
-      <c r="F194" s="4">
-        <v>170.93562200116659</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B195" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C195" s="15">
-        <v>185.20392368354382</v>
+        <v>180.55123910329797</v>
       </c>
       <c r="D195" s="3">
-        <v>186.23237426230622</v>
+        <v>183.52953173583597</v>
       </c>
       <c r="E195" s="3">
-        <v>184.25257988550405</v>
+        <v>173.68435438748367</v>
       </c>
       <c r="F195" s="4">
-        <v>174.51201778810162</v>
+        <v>170.93562200116659</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B196" s="1" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C196" s="15">
-        <v>183.97201967385581</v>
+        <v>185.20392368354382</v>
       </c>
       <c r="D196" s="3">
-        <v>186.90183935677675</v>
+        <v>186.23237426230622</v>
       </c>
       <c r="E196" s="3">
-        <v>176.78468695110678</v>
+        <v>184.25257988550405</v>
       </c>
       <c r="F196" s="4">
-        <v>173.13454296470368</v>
+        <v>174.51201778810162</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B197" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C197" s="15">
-        <v>180.84870497089179</v>
+        <v>183.97201967385581</v>
       </c>
       <c r="D197" s="3">
-        <v>183.25421765277704</v>
+        <v>186.90183935677675</v>
       </c>
       <c r="E197" s="3">
-        <v>175.43381719827704</v>
+        <v>176.78468695110678</v>
       </c>
       <c r="F197" s="4">
-        <v>170.39953586997373</v>
+        <v>173.13454296470368</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B198" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C198" s="15">
-        <v>182.61168887490399</v>
+        <v>180.84870497089179</v>
       </c>
       <c r="D198" s="3">
-        <v>184.12637699151904</v>
+        <v>183.25421765277704</v>
       </c>
       <c r="E198" s="3">
-        <v>180.016011348164</v>
+        <v>175.43381719827704</v>
       </c>
       <c r="F198" s="4">
-        <v>172.09297342120809</v>
+        <v>170.39953586997373</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B199" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C199" s="15">
-        <v>179.98511900888795</v>
+        <v>182.61168887490399</v>
       </c>
       <c r="D199" s="3">
-        <v>181.9754633992963</v>
+        <v>184.12637699151904</v>
       </c>
       <c r="E199" s="3">
-        <v>175.97925548601094</v>
+        <v>180.016011348164</v>
       </c>
       <c r="F199" s="4">
-        <v>169.25523113472411</v>
+        <v>172.09297342120809</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B200" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C200" s="15">
-        <v>179.08457315890521</v>
+        <v>179.98511900888795</v>
       </c>
       <c r="D200" s="3">
-        <v>180.92228043554348</v>
+        <v>181.9754633992963</v>
       </c>
       <c r="E200" s="3">
-        <v>176.28646462256697</v>
+        <v>175.97925548601094</v>
       </c>
       <c r="F200" s="4">
-        <v>169.78194033701817</v>
+        <v>169.25523113472411</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B201" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C201" s="15">
-        <v>175.93678328885642</v>
+        <v>179.08457315890521</v>
       </c>
       <c r="D201" s="3">
-        <v>177.85789656214027</v>
+        <v>180.92228043554348</v>
       </c>
       <c r="E201" s="3">
-        <v>172.87830865552849</v>
+        <v>176.28646462256697</v>
       </c>
       <c r="F201" s="4">
-        <v>168.10901860855139</v>
+        <v>169.78194033701817</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B202" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C202" s="15">
-        <v>171.8342886844992</v>
+        <v>175.93678328885642</v>
       </c>
       <c r="D202" s="3">
-        <v>173.833685162378</v>
+        <v>177.85789656214027</v>
       </c>
       <c r="E202" s="3">
-        <v>169.72975898514298</v>
+        <v>172.87830865552849</v>
       </c>
       <c r="F202" s="4">
-        <v>165.17361078233554</v>
+        <v>168.10901860855139</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B203" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C203" s="15">
-        <v>173.52485230526437</v>
+        <v>171.8342886844992</v>
       </c>
       <c r="D203" s="3">
-        <v>176.15208216285183</v>
+        <v>173.833685162378</v>
       </c>
       <c r="E203" s="3">
-        <v>167.56575870849758</v>
+        <v>169.72975898514298</v>
       </c>
       <c r="F203" s="4">
-        <v>165.91363639986454</v>
+        <v>165.17361078233554</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B204" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C204" s="15">
+        <v>173.52485230526437</v>
+      </c>
+      <c r="D204" s="3">
+        <v>176.15208216285183</v>
+      </c>
+      <c r="E204" s="3">
+        <v>167.56575870849758</v>
+      </c>
+      <c r="F204" s="4">
+        <v>165.91363639986454</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B205" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C204" s="15">
+      <c r="C205" s="15">
         <v>170.17202581109905</v>
       </c>
-      <c r="D204" s="3">
+      <c r="D205" s="3">
         <v>171.9506294053551</v>
       </c>
-      <c r="E204" s="3">
+      <c r="E205" s="3">
         <v>167.03787716697013</v>
       </c>
-      <c r="F204" s="4">
+      <c r="F205" s="4">
         <v>162.74259132949956</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A205" s="1">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A206" s="1">
         <v>2003</v>
       </c>
-      <c r="B205" s="1" t="s">
+      <c r="B206" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C205" s="15">
+      <c r="C206" s="15">
         <v>168.97359017903219</v>
       </c>
-      <c r="D205" s="3">
+      <c r="D206" s="3">
         <v>172.64533333779187</v>
       </c>
-      <c r="E205" s="3">
+      <c r="E206" s="3">
         <v>158.94069303968408</v>
       </c>
-      <c r="F205" s="4">
+      <c r="F206" s="4">
         <v>163.86228701563903</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B206" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C206" s="15">
-        <v>165.56731067977603</v>
-      </c>
-      <c r="D206" s="3">
-        <v>168.38614133972618</v>
-      </c>
-      <c r="E206" s="3">
-        <v>158.87808735475014</v>
-      </c>
-      <c r="F206" s="4">
-        <v>162.44985794220088</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B207" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C207" s="15">
-        <v>164.36733335424088</v>
+        <v>165.56731067977603</v>
       </c>
       <c r="D207" s="3">
-        <v>166.05118670289284</v>
+        <v>168.38614133972618</v>
       </c>
       <c r="E207" s="3">
-        <v>161.2250861377791</v>
+        <v>158.87808735475014</v>
       </c>
       <c r="F207" s="4">
-        <v>161.03219478551844</v>
+        <v>162.44985794220088</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B208" s="1" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C208" s="15">
-        <v>163.72191965747564</v>
+        <v>164.36733335424088</v>
       </c>
       <c r="D208" s="3">
-        <v>166.1807336982861</v>
+        <v>166.05118670289284</v>
       </c>
       <c r="E208" s="3">
-        <v>158.54203907978655</v>
+        <v>161.2250861377791</v>
       </c>
       <c r="F208" s="4">
-        <v>161.80968469545491</v>
+        <v>161.03219478551844</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B209" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C209" s="15">
-        <v>160.57535184189115</v>
+        <v>163.72191965747564</v>
       </c>
       <c r="D209" s="3">
-        <v>162.79281146879049</v>
+        <v>166.1807336982861</v>
       </c>
       <c r="E209" s="3">
-        <v>156.2317067859162</v>
+        <v>158.54203907978655</v>
       </c>
       <c r="F209" s="4">
-        <v>160.74354161861467</v>
+        <v>161.80968469545491</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B210" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C210" s="15">
-        <v>158.90395006485639</v>
+        <v>160.57535184189115</v>
       </c>
       <c r="D210" s="3">
-        <v>160.86182322751961</v>
+        <v>162.79281146879049</v>
       </c>
       <c r="E210" s="3">
-        <v>155.3055783447887</v>
+        <v>156.2317067859162</v>
       </c>
       <c r="F210" s="4">
-        <v>158.85743795367375</v>
+        <v>160.74354161861467</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B211" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C211" s="15">
-        <v>158.01150353948626</v>
+        <v>158.90395006485639</v>
       </c>
       <c r="D211" s="3">
-        <v>159.78639966115398</v>
+        <v>160.86182322751961</v>
       </c>
       <c r="E211" s="3">
-        <v>155.05216793113127</v>
+        <v>155.3055783447887</v>
       </c>
       <c r="F211" s="4">
-        <v>160.27543634403037</v>
+        <v>158.85743795367375</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B212" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C212" s="15">
-        <v>155.94987627272198</v>
+        <v>158.01150353948626</v>
       </c>
       <c r="D212" s="3">
-        <v>157.66166518030573</v>
+        <v>159.78639966115398</v>
       </c>
       <c r="E212" s="3">
-        <v>153.1157349440895</v>
+        <v>155.05216793113127</v>
       </c>
       <c r="F212" s="4">
-        <v>157.79317928975419</v>
+        <v>160.27543634403037</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B213" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C213" s="15">
-        <v>157.89135701060252</v>
+        <v>155.94987627272198</v>
       </c>
       <c r="D213" s="3">
-        <v>160.55999002393742</v>
+        <v>157.66166518030573</v>
       </c>
       <c r="E213" s="3">
-        <v>152.1335618306303</v>
+        <v>153.1157349440895</v>
       </c>
       <c r="F213" s="4">
-        <v>159.79201471761465</v>
+        <v>157.79317928975419</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B214" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C214" s="15">
-        <v>153.9861825591189</v>
+        <v>157.89135701060252</v>
       </c>
       <c r="D214" s="3">
-        <v>155.49452224481914</v>
+        <v>160.55999002393742</v>
       </c>
       <c r="E214" s="3">
-        <v>151.91266682676152</v>
+        <v>152.1335618306303</v>
       </c>
       <c r="F214" s="4">
-        <v>156.39379541397741</v>
+        <v>159.79201471761465</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B215" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C215" s="15">
-        <v>156.60172976501084</v>
+        <v>153.9861825591189</v>
       </c>
       <c r="D215" s="3">
-        <v>157.6079109583566</v>
+        <v>155.49452224481914</v>
       </c>
       <c r="E215" s="3">
-        <v>156.34958991277443</v>
+        <v>151.91266682676152</v>
       </c>
       <c r="F215" s="4">
-        <v>158.30460493338731</v>
+        <v>156.39379541397741</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B216" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C216" s="15">
+        <v>156.60172976501084</v>
+      </c>
+      <c r="D216" s="3">
+        <v>157.6079109583566</v>
+      </c>
+      <c r="E216" s="3">
+        <v>156.34958991277443</v>
+      </c>
+      <c r="F216" s="4">
+        <v>158.30460493338731</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B217" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C216" s="15">
+      <c r="C217" s="15">
         <v>156.24714582596616</v>
       </c>
-      <c r="D216" s="3">
+      <c r="D217" s="3">
         <v>157.11408217417764</v>
       </c>
-      <c r="E216" s="3">
+      <c r="E217" s="3">
         <v>156.43212074170762</v>
       </c>
-      <c r="F216" s="4">
+      <c r="F217" s="4">
         <v>156.91200283976389</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A217" s="1">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A218" s="1">
         <v>2002</v>
       </c>
-      <c r="B217" s="1" t="s">
+      <c r="B218" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C217" s="15">
+      <c r="C218" s="15">
         <v>155.00222688580945</v>
       </c>
-      <c r="D217" s="3">
+      <c r="D218" s="3">
         <v>155.63135009098215</v>
       </c>
-      <c r="E217" s="3">
+      <c r="E218" s="3">
         <v>155.83028025204456</v>
       </c>
-      <c r="F217" s="4">
+      <c r="F218" s="4">
         <v>155.48944806098845</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B218" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C218" s="15">
-        <v>153.99193463052018</v>
-      </c>
-      <c r="D218" s="3">
-        <v>156.68397366499997</v>
-      </c>
-      <c r="E218" s="3">
-        <v>148.52076342727065</v>
-      </c>
-      <c r="F218" s="4">
-        <v>154.60257927015613</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B219" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C219" s="15">
-        <v>152.82791757946211</v>
+        <v>153.99193463052018</v>
       </c>
       <c r="D219" s="3">
-        <v>153.73710175741874</v>
+        <v>156.68397366499997</v>
       </c>
       <c r="E219" s="3">
-        <v>153.01916789394707</v>
+        <v>148.52076342727065</v>
       </c>
       <c r="F219" s="4">
-        <v>153.17713109440163</v>
+        <v>154.60257927015613</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B220" s="1" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C220" s="15">
-        <v>151.88500793374172</v>
+        <v>152.82791757946211</v>
       </c>
       <c r="D220" s="3">
-        <v>153.66040087768855</v>
+        <v>153.73710175741874</v>
       </c>
       <c r="E220" s="3">
-        <v>149.49421958165465</v>
+        <v>153.01916789394707</v>
       </c>
       <c r="F220" s="4">
-        <v>152.55920706325062</v>
+        <v>153.17713109440163</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B221" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C221" s="15">
-        <v>150.44728579374885</v>
+        <v>151.88500793374172</v>
       </c>
       <c r="D221" s="3">
-        <v>152.6454448783758</v>
+        <v>153.66040087768855</v>
       </c>
       <c r="E221" s="3">
-        <v>146.65646163281133</v>
+        <v>149.49421958165465</v>
       </c>
       <c r="F221" s="4">
-        <v>151.09146893605987</v>
+        <v>152.55920706325062</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B222" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C222" s="15">
-        <v>149.75626568812189</v>
+        <v>150.44728579374885</v>
       </c>
       <c r="D222" s="3">
-        <v>152.4328217343255</v>
+        <v>152.6454448783758</v>
       </c>
       <c r="E222" s="3">
-        <v>144.17820236440153</v>
+        <v>146.65646163281133</v>
       </c>
       <c r="F222" s="4">
-        <v>151.0512031882582</v>
+        <v>151.09146893605987</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B223" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C223" s="15">
-        <v>152.32813474055882</v>
+        <v>149.75626568812189</v>
       </c>
       <c r="D223" s="3">
-        <v>153.98221733063983</v>
+        <v>152.4328217343255</v>
       </c>
       <c r="E223" s="3">
-        <v>149.78137739911429</v>
+        <v>144.17820236440153</v>
       </c>
       <c r="F223" s="4">
-        <v>153.06838019037772</v>
+        <v>151.0512031882582</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B224" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C224" s="15">
-        <v>152.95222223430287</v>
+        <v>152.32813474055882</v>
       </c>
       <c r="D224" s="3">
-        <v>154.21110182204728</v>
+        <v>153.98221733063983</v>
       </c>
       <c r="E224" s="3">
-        <v>151.78614790383173</v>
+        <v>149.78137739911429</v>
       </c>
       <c r="F224" s="4">
-        <v>153.87399752298049</v>
+        <v>153.06838019037772</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B225" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C225" s="15">
-        <v>149.90393468209649</v>
+        <v>152.95222223430287</v>
       </c>
       <c r="D225" s="3">
-        <v>151.82254567407711</v>
+        <v>154.21110182204728</v>
       </c>
       <c r="E225" s="3">
-        <v>146.50145086127372</v>
+        <v>151.78614790383173</v>
       </c>
       <c r="F225" s="4">
-        <v>150.1894502687131</v>
+        <v>153.87399752298049</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B226" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C226" s="15">
-        <v>154.31724829745505</v>
+        <v>149.90393468209649</v>
       </c>
       <c r="D226" s="3">
-        <v>156.10478720446346</v>
+        <v>151.82254567407711</v>
       </c>
       <c r="E226" s="3">
-        <v>151.43907740292755</v>
+        <v>146.50145086127372</v>
       </c>
       <c r="F226" s="4">
-        <v>154.86784419927108</v>
+        <v>150.1894502687131</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B227" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C227" s="15">
-        <v>152.52954624437481</v>
+        <v>154.31724829745505</v>
       </c>
       <c r="D227" s="3">
-        <v>153.56641498282497</v>
+        <v>156.10478720446346</v>
       </c>
       <c r="E227" s="3">
-        <v>151.73362058064779</v>
+        <v>151.43907740292755</v>
       </c>
       <c r="F227" s="4">
-        <v>153.40742915628823</v>
+        <v>154.86784419927108</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B228" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C228" s="15">
+        <v>152.52954624437481</v>
+      </c>
+      <c r="D228" s="3">
+        <v>153.56641498282497</v>
+      </c>
+      <c r="E228" s="3">
+        <v>151.73362058064779</v>
+      </c>
+      <c r="F228" s="4">
+        <v>153.40742915628823</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B229" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C228" s="15">
+      <c r="C229" s="15">
         <v>152.971264273722</v>
       </c>
-      <c r="D228" s="3">
+      <c r="D229" s="3">
         <v>154.82214028633675</v>
       </c>
-      <c r="E228" s="3">
+      <c r="E229" s="3">
         <v>149.5177187668545</v>
       </c>
-      <c r="F228" s="4">
+      <c r="F229" s="4">
         <v>153.86613157052875</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A229" s="1">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A230" s="1">
         <v>2001</v>
       </c>
-      <c r="B229" s="1" t="s">
+      <c r="B230" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C229" s="15">
+      <c r="C230" s="15">
         <v>148.04923845627133</v>
       </c>
-      <c r="D229" s="3">
+      <c r="D230" s="3">
         <v>148.2975976469985</v>
       </c>
-      <c r="E229" s="3">
+      <c r="E230" s="3">
         <v>149.60395993092513</v>
       </c>
-      <c r="F229" s="4">
+      <c r="F230" s="4">
         <v>148.10530750980223</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B230" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C230" s="15">
-        <v>149.36046950260163</v>
-      </c>
-      <c r="D230" s="3">
-        <v>150.83647264587103</v>
-      </c>
-      <c r="E230" s="3">
-        <v>147.30299822877126</v>
-      </c>
-      <c r="F230" s="4">
-        <v>149.21308321843094</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B231" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C231" s="15">
-        <v>149.09110693832721</v>
+        <v>149.36046950260163</v>
       </c>
       <c r="D231" s="3">
-        <v>150.87634294232316</v>
+        <v>150.83647264587103</v>
       </c>
       <c r="E231" s="3">
-        <v>146.28202012411822</v>
+        <v>147.30299822877126</v>
       </c>
       <c r="F231" s="4">
-        <v>149.40866810317905</v>
+        <v>149.21308321843094</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B232" s="1" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C232" s="15">
-        <v>145.43238122320571</v>
+        <v>149.09110693832721</v>
       </c>
       <c r="D232" s="3">
-        <v>147.00317562060812</v>
+        <v>150.87634294232316</v>
       </c>
       <c r="E232" s="3">
-        <v>143.1056796454734</v>
+        <v>146.28202012411822</v>
       </c>
       <c r="F232" s="4">
-        <v>146.07191055498421</v>
+        <v>149.40866810317905</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B233" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C233" s="15">
-        <v>146.1016557142743</v>
+        <v>145.43238122320571</v>
       </c>
       <c r="D233" s="3">
-        <v>147.36468866057916</v>
+        <v>147.00317562060812</v>
       </c>
       <c r="E233" s="3">
-        <v>144.77658328820863</v>
+        <v>143.1056796454734</v>
       </c>
       <c r="F233" s="4">
-        <v>146.24013106115189</v>
+        <v>146.07191055498421</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B234" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C234" s="15">
-        <v>145.377114305042</v>
+        <v>146.1016557142743</v>
       </c>
       <c r="D234" s="3">
-        <v>146.65813981014514</v>
+        <v>147.36468866057916</v>
       </c>
       <c r="E234" s="3">
-        <v>144.1569809472854</v>
+        <v>144.77658328820863</v>
       </c>
       <c r="F234" s="4">
-        <v>145.29927264381129</v>
+        <v>146.24013106115189</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B235" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C235" s="15">
-        <v>143.70058505874917</v>
+        <v>145.377114305042</v>
       </c>
       <c r="D235" s="3">
-        <v>145.04846607613894</v>
+        <v>146.65813981014514</v>
       </c>
       <c r="E235" s="3">
-        <v>142.32176492270025</v>
+        <v>144.1569809472854</v>
       </c>
       <c r="F235" s="4">
-        <v>143.7478338267135</v>
+        <v>145.29927264381129</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B236" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C236" s="15">
-        <v>142.27935145053033</v>
+        <v>143.70058505874917</v>
       </c>
       <c r="D236" s="3">
-        <v>144.73835071258239</v>
+        <v>145.04846607613894</v>
       </c>
       <c r="E236" s="3">
-        <v>137.48381066933047</v>
+        <v>142.32176492270025</v>
       </c>
       <c r="F236" s="4">
-        <v>142.17270043794977</v>
+        <v>143.7478338267135</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B237" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C237" s="15">
-        <v>140.8930189275105</v>
+        <v>142.27935145053033</v>
       </c>
       <c r="D237" s="3">
-        <v>142.88337625625169</v>
+        <v>144.73835071258239</v>
       </c>
       <c r="E237" s="3">
-        <v>137.50798234886915</v>
+        <v>137.48381066933047</v>
       </c>
       <c r="F237" s="4">
-        <v>141.53524297587134</v>
+        <v>142.17270043794977</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B238" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C238" s="15">
-        <v>140.11360828654864</v>
+        <v>140.8930189275105</v>
       </c>
       <c r="D238" s="3">
-        <v>141.29790508431125</v>
+        <v>142.88337625625169</v>
       </c>
       <c r="E238" s="3">
-        <v>139.31868876161914</v>
+        <v>137.50798234886915</v>
       </c>
       <c r="F238" s="4">
-        <v>137.62864804780142</v>
+        <v>141.53524297587134</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B239" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C239" s="15">
-        <v>139.23937596902567</v>
+        <v>140.11360828654864</v>
       </c>
       <c r="D239" s="3">
-        <v>142.04346862790899</v>
+        <v>141.29790508431125</v>
       </c>
       <c r="E239" s="3">
-        <v>133.54933632344301</v>
+        <v>139.31868876161914</v>
       </c>
       <c r="F239" s="4">
-        <v>133.00839774802594</v>
+        <v>137.62864804780142</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B240" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C240" s="15">
+        <v>139.23937596902567</v>
+      </c>
+      <c r="D240" s="3">
+        <v>142.04346862790899</v>
+      </c>
+      <c r="E240" s="3">
+        <v>133.54933632344301</v>
+      </c>
+      <c r="F240" s="4">
+        <v>133.00839774802594</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B241" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C240" s="15">
+      <c r="C241" s="15">
         <v>139.15455832865482</v>
       </c>
-      <c r="D240" s="3">
+      <c r="D241" s="3">
         <v>141.21476899683518</v>
       </c>
-      <c r="E240" s="3">
+      <c r="E241" s="3">
         <v>135.67242477303833</v>
       </c>
-      <c r="F240" s="4">
+      <c r="F241" s="4">
         <v>132.61679245943589</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A241" s="1">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A242" s="1">
         <v>2000</v>
       </c>
-      <c r="B241" s="1" t="s">
+      <c r="B242" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C241" s="15">
+      <c r="C242" s="15">
         <v>132.89360545130737</v>
       </c>
-      <c r="D241" s="3">
+      <c r="D242" s="3">
         <v>134.71865997562384</v>
       </c>
-      <c r="E241" s="3">
+      <c r="E242" s="3">
         <v>130.09412280107782</v>
       </c>
-      <c r="F241" s="4">
+      <c r="F242" s="4">
         <v>126.89373238728859</v>
-      </c>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B242" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C242" s="15">
-        <v>131.77227797008524</v>
-      </c>
-      <c r="D242" s="3">
-        <v>133.62481510696335</v>
-      </c>
-      <c r="E242" s="3">
-        <v>128.77426237965366</v>
-      </c>
-      <c r="F242" s="4">
-        <v>123.78278739322306</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B243" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C243" s="15">
-        <v>129.97953000457312</v>
+        <v>131.77227797008524</v>
       </c>
       <c r="D243" s="3">
-        <v>132.09305370082475</v>
+        <v>133.62481510696335</v>
       </c>
       <c r="E243" s="3">
-        <v>126.17848378886322</v>
+        <v>128.77426237965366</v>
       </c>
       <c r="F243" s="4">
-        <v>122.25804440791914</v>
+        <v>123.78278739322306</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B244" s="1" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C244" s="15">
-        <v>128.23932323613701</v>
+        <v>129.97953000457312</v>
       </c>
       <c r="D244" s="3">
-        <v>130.41669461501888</v>
+        <v>132.09305370082475</v>
       </c>
       <c r="E244" s="3">
-        <v>124.34033628033048</v>
+        <v>126.17848378886322</v>
       </c>
       <c r="F244" s="4">
-        <v>120.6224717781285</v>
+        <v>122.25804440791914</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B245" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C245" s="15">
-        <v>127.28636784403736</v>
+        <v>128.23932323613701</v>
       </c>
       <c r="D245" s="3">
-        <v>128.7568321214313</v>
+        <v>130.41669461501888</v>
       </c>
       <c r="E245" s="3">
-        <v>125.67209953028102</v>
+        <v>124.34033628033048</v>
       </c>
       <c r="F245" s="4">
-        <v>119.24910299731364</v>
+        <v>120.6224717781285</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B246" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C246" s="15">
-        <v>126.21395553629893</v>
+        <v>127.28636784403736</v>
       </c>
       <c r="D246" s="3">
-        <v>127.78281471730511</v>
+        <v>128.7568321214313</v>
       </c>
       <c r="E246" s="3">
-        <v>124.49591144634093</v>
+        <v>125.67209953028102</v>
       </c>
       <c r="F246" s="4">
-        <v>118.44997139946078</v>
+        <v>119.24910299731364</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B247" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C247" s="15">
-        <v>125.11709103193061</v>
+        <v>126.21395553629893</v>
       </c>
       <c r="D247" s="3">
-        <v>127.83121608850263</v>
+        <v>127.78281471730511</v>
       </c>
       <c r="E247" s="3">
-        <v>120.22411876680803</v>
+        <v>124.49591144634093</v>
       </c>
       <c r="F247" s="4">
-        <v>117.35910013333937</v>
+        <v>118.44997139946078</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B248" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C248" s="15">
-        <v>121.6216503421532</v>
+        <v>125.11709103193061</v>
       </c>
       <c r="D248" s="3">
-        <v>122.94636765202098</v>
+        <v>127.83121608850263</v>
       </c>
       <c r="E248" s="3">
-        <v>120.61760174345805</v>
+        <v>120.22411876680803</v>
       </c>
       <c r="F248" s="4">
-        <v>114.33151692604973</v>
+        <v>117.35910013333937</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B249" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C249" s="15">
-        <v>119.29154872863107</v>
+        <v>121.6216503421532</v>
       </c>
       <c r="D249" s="3">
-        <v>120.86928042084635</v>
+        <v>122.94636765202098</v>
       </c>
       <c r="E249" s="3">
-        <v>117.52080111908394</v>
+        <v>120.61760174345805</v>
       </c>
       <c r="F249" s="4">
-        <v>111.88422482225481</v>
+        <v>114.33151692604973</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B250" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C250" s="15">
-        <v>116.64755157950421</v>
+        <v>119.29154872863107</v>
       </c>
       <c r="D250" s="3">
-        <v>117.41215562908165</v>
+        <v>120.86928042084635</v>
       </c>
       <c r="E250" s="3">
-        <v>117.09183917675911</v>
+        <v>117.52080111908394</v>
       </c>
       <c r="F250" s="4">
-        <v>109.32611402726904</v>
+        <v>111.88422482225481</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B251" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C251" s="15">
-        <v>115.21908981204919</v>
+        <v>116.64755157950421</v>
       </c>
       <c r="D251" s="3">
-        <v>116.03941906538985</v>
+        <v>117.41215562908165</v>
       </c>
       <c r="E251" s="3">
-        <v>115.65950204376719</v>
+        <v>117.09183917675911</v>
       </c>
       <c r="F251" s="4">
-        <v>108.37350410715391</v>
+        <v>109.32611402726904</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B252" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C252" s="15">
+        <v>115.21908981204919</v>
+      </c>
+      <c r="D252" s="3">
+        <v>116.03941906538985</v>
+      </c>
+      <c r="E252" s="3">
+        <v>115.65950204376719</v>
+      </c>
+      <c r="F252" s="4">
+        <v>108.37350410715391</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B253" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C252" s="15">
+      <c r="C253" s="15">
         <v>112.02517892515128</v>
       </c>
-      <c r="D252" s="3">
+      <c r="D253" s="3">
         <v>113.54291812512493</v>
       </c>
-      <c r="E252" s="3">
+      <c r="E253" s="3">
         <v>110.4265951907196</v>
       </c>
-      <c r="F252" s="4">
+      <c r="F253" s="4">
         <v>105.10078837684362</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A253" s="1">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A254" s="1">
         <v>1999</v>
       </c>
-      <c r="B253" s="1" t="s">
+      <c r="B254" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C253" s="15">
+      <c r="C254" s="15">
         <v>110.79385624601301</v>
       </c>
-      <c r="D253" s="3">
+      <c r="D254" s="3">
         <v>112.35590244923026</v>
       </c>
-      <c r="E253" s="3">
+      <c r="E254" s="3">
         <v>109.11696104423346</v>
       </c>
-      <c r="F253" s="4">
+      <c r="F254" s="4">
         <v>104.05736753693489</v>
-      </c>
-    </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B254" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C254" s="15">
-        <v>107.85598676651806</v>
-      </c>
-      <c r="D254" s="3">
-        <v>108.55607891802678</v>
-      </c>
-      <c r="E254" s="3">
-        <v>108.47559172664359</v>
-      </c>
-      <c r="F254" s="4">
-        <v>103.01902180315203</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B255" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C255" s="15">
-        <v>106.37865282460432</v>
+        <v>107.85598676651806</v>
       </c>
       <c r="D255" s="3">
-        <v>108.48472799710049</v>
+        <v>108.55607891802678</v>
       </c>
       <c r="E255" s="3">
-        <v>102.95896605880924</v>
+        <v>108.47559172664359</v>
       </c>
       <c r="F255" s="4">
-        <v>100.76420935341736</v>
+        <v>103.01902180315203</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B256" s="1" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C256" s="15">
-        <v>107.14329194820887</v>
+        <v>106.37865282460432</v>
       </c>
       <c r="D256" s="3">
-        <v>107.83504047450224</v>
+        <v>108.48472799710049</v>
       </c>
       <c r="E256" s="3">
-        <v>107.77438399919482</v>
+        <v>102.95896605880924</v>
       </c>
       <c r="F256" s="4">
-        <v>101.69176075564221</v>
+        <v>100.76420935341736</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B257" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C257" s="15">
-        <v>108.11476634104312</v>
+        <v>107.14329194820887</v>
       </c>
       <c r="D257" s="3">
-        <v>109.87004512367064</v>
+        <v>107.83504047450224</v>
       </c>
       <c r="E257" s="3">
-        <v>105.55982531243967</v>
+        <v>107.77438399919482</v>
       </c>
       <c r="F257" s="4">
-        <v>103.21141292190832</v>
+        <v>101.69176075564221</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B258" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C258" s="15">
-        <v>105.37717887276645</v>
+        <v>108.11476634104312</v>
       </c>
       <c r="D258" s="3">
-        <v>106.91122008936784</v>
+        <v>109.87004512367064</v>
       </c>
       <c r="E258" s="3">
-        <v>103.39794032125518</v>
+        <v>105.55982531243967</v>
       </c>
       <c r="F258" s="4">
-        <v>101.31392754820592</v>
+        <v>103.21141292190832</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B259" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C259" s="15">
-        <v>105.01496919108003</v>
+        <v>105.37717887276645</v>
       </c>
       <c r="D259" s="3">
-        <v>106.82170710686677</v>
+        <v>106.91122008936784</v>
       </c>
       <c r="E259" s="3">
-        <v>102.16077953613404</v>
+        <v>103.39794032125518</v>
       </c>
       <c r="F259" s="4">
-        <v>100.85719065791605</v>
+        <v>101.31392754820592</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B260" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C260" s="15">
-        <v>104.98626980776896</v>
+        <v>105.01496919108003</v>
       </c>
       <c r="D260" s="3">
-        <v>107.96992148498219</v>
+        <v>106.82170710686677</v>
       </c>
       <c r="E260" s="3">
-        <v>98.826457815076225</v>
+        <v>102.16077953613404</v>
       </c>
       <c r="F260" s="4">
-        <v>100.80189234519021</v>
+        <v>100.85719065791605</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B261" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C261" s="15">
-        <v>104.62139338649759</v>
+        <v>104.98626980776896</v>
       </c>
       <c r="D261" s="3">
-        <v>106.53781491907145</v>
+        <v>107.96992148498219</v>
       </c>
       <c r="E261" s="3">
-        <v>101.34668927412059</v>
+        <v>98.826457815076225</v>
       </c>
       <c r="F261" s="4">
-        <v>100.69754040945654</v>
+        <v>100.80189234519021</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B262" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C262" s="15">
-        <v>104.2030431407421</v>
+        <v>104.62139338649759</v>
       </c>
       <c r="D262" s="3">
-        <v>106.3870339085405</v>
+        <v>106.53781491907145</v>
       </c>
       <c r="E262" s="3">
-        <v>99.914840084021364</v>
+        <v>101.34668927412059</v>
       </c>
       <c r="F262" s="4">
-        <v>100.11624782353447</v>
+        <v>100.69754040945654</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B263" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C263" s="15">
-        <v>103.30996373017186</v>
+        <v>104.2030431407421</v>
       </c>
       <c r="D263" s="3">
-        <v>105.38572298760518</v>
+        <v>106.3870339085405</v>
       </c>
       <c r="E263" s="3">
-        <v>99.250713584251557</v>
+        <v>99.914840084021364</v>
       </c>
       <c r="F263" s="4">
-        <v>99.22779505923998</v>
+        <v>100.11624782353447</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B264" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C264" s="15">
+        <v>103.30996373017186</v>
+      </c>
+      <c r="D264" s="3">
+        <v>105.38572298760518</v>
+      </c>
+      <c r="E264" s="3">
+        <v>99.250713584251557</v>
+      </c>
+      <c r="F264" s="4">
+        <v>99.22779505923998</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B265" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C264" s="15">
+      <c r="C265" s="15">
         <v>102.4841163387507</v>
       </c>
-      <c r="D264" s="3">
+      <c r="D265" s="3">
         <v>105.5642915957406</v>
       </c>
-      <c r="E264" s="3">
+      <c r="E265" s="3">
         <v>95.461163814350328</v>
       </c>
-      <c r="F264" s="4">
+      <c r="F265" s="4">
         <v>99.983476742863701</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A265" s="1">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A266" s="1">
         <v>1998</v>
       </c>
-      <c r="B265" s="1" t="s">
+      <c r="B266" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C265" s="15">
+      <c r="C266" s="15">
         <v>100.67747013396844</v>
       </c>
-      <c r="D265" s="3">
+      <c r="D266" s="3">
         <v>102.19868103313337</v>
       </c>
-      <c r="E265" s="3">
+      <c r="E266" s="3">
         <v>98.105497207650799</v>
       </c>
-      <c r="F265" s="4">
+      <c r="F266" s="4">
         <v>99.828247018508847</v>
-      </c>
-    </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B266" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C266" s="15">
-        <v>100.04274420928094</v>
-      </c>
-      <c r="D266" s="3">
-        <v>101.51831862608748</v>
-      </c>
-      <c r="E266" s="3">
-        <v>97.533474293608052</v>
-      </c>
-      <c r="F266" s="4">
-        <v>98.937718523712206</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B267" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C267" s="15">
-        <v>99.995473241245421</v>
+        <v>100.04274420928094</v>
       </c>
       <c r="D267" s="3">
-        <v>101.23107220399781</v>
+        <v>101.51831862608748</v>
       </c>
       <c r="E267" s="3">
-        <v>98.148952115829232</v>
+        <v>97.533474293608052</v>
       </c>
       <c r="F267" s="4">
-        <v>99.166757339909154</v>
+        <v>98.937718523712206</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B268" s="1" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C268" s="15">
-        <v>99.92531241512755</v>
+        <v>99.995473241245421</v>
       </c>
       <c r="D268" s="3">
-        <v>102.11299108334215</v>
+        <v>101.23107220399781</v>
       </c>
       <c r="E268" s="3">
-        <v>95.102588734036615</v>
+        <v>98.148952115829232</v>
       </c>
       <c r="F268" s="4">
-        <v>99.083510274583944</v>
+        <v>99.166757339909154</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B269" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C269" s="15">
-        <v>98.134606374091106</v>
+        <v>99.92531241512755</v>
       </c>
       <c r="D269" s="3">
-        <v>100.86442086684571</v>
+        <v>102.11299108334215</v>
       </c>
       <c r="E269" s="3">
-        <v>91.481837118739804</v>
+        <v>95.102588734036615</v>
       </c>
       <c r="F269" s="4">
-        <v>97.55997035156561</v>
+        <v>99.083510274583944</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B270" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C270" s="15">
-        <v>98.552676582715023</v>
+        <v>98.134606374091106</v>
       </c>
       <c r="D270" s="3">
-        <v>100.25253361742564</v>
+        <v>100.86442086684571</v>
       </c>
       <c r="E270" s="3">
-        <v>95.03586809184003</v>
+        <v>91.481837118739804</v>
       </c>
       <c r="F270" s="4">
-        <v>98.535105606955042</v>
+        <v>97.55997035156561</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B271" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C271" s="15">
-        <v>98.771189166458043</v>
+        <v>98.552676582715023</v>
       </c>
       <c r="D271" s="3">
-        <v>100.00394712052743</v>
+        <v>100.25253361742564</v>
       </c>
       <c r="E271" s="3">
-        <v>96.693392603610036</v>
+        <v>95.03586809184003</v>
       </c>
       <c r="F271" s="4">
-        <v>98.783905067599534</v>
+        <v>98.535105606955042</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B272" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C272" s="15">
-        <v>99.119366722067795</v>
+        <v>98.771189166458043</v>
       </c>
       <c r="D272" s="3">
-        <v>100.85565051563144</v>
+        <v>100.00394712052743</v>
       </c>
       <c r="E272" s="3">
-        <v>95.435939372070834</v>
+        <v>96.693392603610036</v>
       </c>
       <c r="F272" s="4">
-        <v>99.177348441431761</v>
+        <v>98.783905067599534</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B273" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C273" s="15">
-        <v>98.934841711592625</v>
+        <v>99.119366722067795</v>
       </c>
       <c r="D273" s="3">
-        <v>100.31215493960676</v>
+        <v>100.85565051563144</v>
       </c>
       <c r="E273" s="3">
-        <v>96.3845332859606</v>
+        <v>95.435939372070834</v>
       </c>
       <c r="F273" s="4">
-        <v>98.713983152645852</v>
+        <v>99.177348441431761</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B274" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C274" s="15">
-        <v>99.617104667128032</v>
+        <v>98.934841711592625</v>
       </c>
       <c r="D274" s="3">
-        <v>101.33236875710584</v>
+        <v>100.31215493960676</v>
       </c>
       <c r="E274" s="3">
-        <v>95.971311803979034</v>
+        <v>96.3845332859606</v>
       </c>
       <c r="F274" s="4">
-        <v>100.07786422853337</v>
+        <v>98.713983152645852</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B275" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C275" s="15">
-        <v>97.289836219460042</v>
+        <v>99.617104667128032</v>
       </c>
       <c r="D275" s="3">
-        <v>98.965257416317712</v>
+        <v>101.33236875710584</v>
       </c>
       <c r="E275" s="3">
-        <v>93.509961950416212</v>
+        <v>95.971311803979034</v>
       </c>
       <c r="F275" s="4">
-        <v>97.574556646712509</v>
+        <v>100.07786422853337</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B276" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C276" s="15">
+        <v>97.289836219460042</v>
+      </c>
+      <c r="D276" s="3">
+        <v>98.965257416317712</v>
+      </c>
+      <c r="E276" s="3">
+        <v>93.509961950416212</v>
+      </c>
+      <c r="F276" s="4">
+        <v>97.574556646712509</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B277" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C276" s="15">
+      <c r="C277" s="15">
         <v>97.319396149989302</v>
       </c>
-      <c r="D276" s="3">
+      <c r="D277" s="3">
         <v>99.620624831420855</v>
       </c>
-      <c r="E276" s="3">
+      <c r="E277" s="3">
         <v>91.803412885714295</v>
       </c>
-      <c r="F276" s="4">
+      <c r="F277" s="4">
         <v>97.635372461774367</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A277" s="1">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A278" s="1">
         <v>1997</v>
       </c>
-      <c r="B277" s="1" t="s">
+      <c r="B278" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C277" s="15">
+      <c r="C278" s="15">
         <v>96.205309577609725</v>
       </c>
-      <c r="D277" s="3">
+      <c r="D278" s="3">
         <v>98.399911463545962</v>
       </c>
-      <c r="E277" s="3">
+      <c r="E278" s="3">
         <v>90.975269528866406</v>
       </c>
-      <c r="F277" s="4">
+      <c r="F278" s="4">
         <v>96.396769557032499</v>
-      </c>
-    </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B278" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C278" s="15">
-        <v>98.1748865951498</v>
-      </c>
-      <c r="D278" s="3">
-        <v>101.0333132493494</v>
-      </c>
-      <c r="E278" s="3">
-        <v>90.813821282925545</v>
-      </c>
-      <c r="F278" s="4">
-        <v>97.98345155823948</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B279" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C279" s="15">
-        <v>96.04108606096834</v>
+        <v>98.1748865951498</v>
       </c>
       <c r="D279" s="3">
-        <v>97.898143126751705</v>
+        <v>101.0333132493494</v>
       </c>
       <c r="E279" s="3">
-        <v>91.58049989343516</v>
+        <v>90.813821282925545</v>
       </c>
       <c r="F279" s="4">
-        <v>96.860483020066724</v>
+        <v>97.98345155823948</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B280" s="1" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C280" s="15">
-        <v>96.864314256007034</v>
+        <v>96.04108606096834</v>
       </c>
       <c r="D280" s="3">
-        <v>98.11121325625858</v>
+        <v>97.898143126751705</v>
       </c>
       <c r="E280" s="3">
-        <v>94.070680465234688</v>
+        <v>91.58049989343516</v>
       </c>
       <c r="F280" s="4">
-        <v>97.710131542704815</v>
+        <v>96.860483020066724</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B281" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C281" s="15">
-        <v>96.202861544533249</v>
+        <v>96.864314256007034</v>
       </c>
       <c r="D281" s="3">
-        <v>98.52721763565836</v>
+        <v>98.11121325625858</v>
       </c>
       <c r="E281" s="3">
-        <v>89.843790890912928</v>
+        <v>94.070680465234688</v>
       </c>
       <c r="F281" s="4">
-        <v>96.265724441040717</v>
+        <v>97.710131542704815</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B282" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C282" s="15">
-        <v>98.974270464967816</v>
+        <v>96.202861544533249</v>
       </c>
       <c r="D282" s="3">
-        <v>101.29086462308501</v>
+        <v>98.52721763565836</v>
       </c>
       <c r="E282" s="3">
-        <v>92.681206850521278</v>
+        <v>89.843790890912928</v>
       </c>
       <c r="F282" s="4">
-        <v>98.931742118888025</v>
+        <v>96.265724441040717</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B283" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C283" s="15">
-        <v>97.769105071136181</v>
+        <v>98.974270464967816</v>
       </c>
       <c r="D283" s="3">
-        <v>99.493632809841785</v>
+        <v>101.29086462308501</v>
       </c>
       <c r="E283" s="3">
-        <v>93.41128595212669</v>
+        <v>92.681206850521278</v>
       </c>
       <c r="F283" s="4">
-        <v>98.007697346565806</v>
+        <v>98.931742118888025</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B284" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C284" s="15">
-        <v>96.950522429102605</v>
+        <v>97.769105071136181</v>
       </c>
       <c r="D284" s="3">
-        <v>98.736166207104461</v>
+        <v>99.493632809841785</v>
       </c>
       <c r="E284" s="3">
-        <v>92.283979416736926</v>
+        <v>93.41128595212669</v>
       </c>
       <c r="F284" s="4">
-        <v>97.394502613268344</v>
+        <v>98.007697346565806</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B285" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C285" s="15">
-        <v>95.863347390062188</v>
+        <v>96.950522429102605</v>
       </c>
       <c r="D285" s="3">
-        <v>97.326330981431099</v>
+        <v>98.736166207104461</v>
       </c>
       <c r="E285" s="3">
-        <v>92.232022107611698</v>
+        <v>92.283979416736926</v>
       </c>
       <c r="F285" s="4">
-        <v>96.166949165007466</v>
+        <v>97.394502613268344</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B286" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C286" s="15">
-        <v>96.131584620989784</v>
+        <v>95.863347390062188</v>
       </c>
       <c r="D286" s="3">
-        <v>97.919246861370468</v>
+        <v>97.326330981431099</v>
       </c>
       <c r="E286" s="3">
-        <v>91.416584571720534</v>
+        <v>92.232022107611698</v>
       </c>
       <c r="F286" s="4">
-        <v>96.919704854182413</v>
+        <v>96.166949165007466</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B287" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C287" s="15">
-        <v>95.218255111870079</v>
+        <v>96.131584620989784</v>
       </c>
       <c r="D287" s="3">
-        <v>97.321736769232459</v>
+        <v>97.919246861370468</v>
       </c>
       <c r="E287" s="3">
-        <v>89.532877047793306</v>
+        <v>91.416584571720534</v>
       </c>
       <c r="F287" s="4">
-        <v>95.580673920244223</v>
+        <v>96.919704854182413</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B288" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C288" s="15">
+        <v>95.218255111870079</v>
+      </c>
+      <c r="D288" s="3">
+        <v>97.321736769232459</v>
+      </c>
+      <c r="E288" s="3">
+        <v>89.532877047793306</v>
+      </c>
+      <c r="F288" s="4">
+        <v>95.580673920244223</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B289" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C288" s="15">
+      <c r="C289" s="15">
         <v>95.412302151358432</v>
       </c>
-      <c r="D288" s="3">
+      <c r="D289" s="3">
         <v>98.228187044702821</v>
       </c>
-      <c r="E288" s="3">
+      <c r="E289" s="3">
         <v>87.50502463009731</v>
       </c>
-      <c r="F288" s="4">
+      <c r="F289" s="4">
         <v>95.697434900581598</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A289" s="1">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A290" s="1">
         <v>1996</v>
       </c>
-      <c r="B289" s="1" t="s">
+      <c r="B290" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C289" s="15">
+      <c r="C290" s="15">
         <v>94.602029314556106</v>
       </c>
-      <c r="D289" s="3">
+      <c r="D290" s="3">
         <v>95.86365161434432</v>
       </c>
-      <c r="E289" s="3">
+      <c r="E290" s="3">
         <v>91.889892286995135</v>
       </c>
-      <c r="F289" s="4">
+      <c r="F290" s="4">
         <v>95.657742173966227</v>
-      </c>
-    </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B290" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C290" s="15">
-        <v>93.831093761074513</v>
-      </c>
-      <c r="D290" s="3">
-        <v>95.593209043585176</v>
-      </c>
-      <c r="E290" s="3">
-        <v>89.487215335958197</v>
-      </c>
-      <c r="F290" s="4">
-        <v>94.518454718101466</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B291" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C291" s="15">
-        <v>96.630194665821961</v>
+        <v>93.831093761074513</v>
       </c>
       <c r="D291" s="3">
-        <v>98.187521621689925</v>
+        <v>95.593209043585176</v>
       </c>
       <c r="E291" s="3">
-        <v>93.050666297732889</v>
+        <v>89.487215335958197</v>
       </c>
       <c r="F291" s="4">
-        <v>97.535323041016611</v>
+        <v>94.518454718101466</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B292" s="1" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C292" s="15">
-        <v>96.471510258250248</v>
+        <v>96.630194665821961</v>
       </c>
       <c r="D292" s="3">
-        <v>97.713143340294323</v>
+        <v>98.187521621689925</v>
       </c>
       <c r="E292" s="3">
-        <v>93.863990358804699</v>
+        <v>93.050666297732889</v>
       </c>
       <c r="F292" s="4">
-        <v>97.096180982079389</v>
+        <v>97.535323041016611</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B293" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C293" s="15">
-        <v>97.164032103349044</v>
+        <v>96.471510258250248</v>
       </c>
       <c r="D293" s="3">
-        <v>98.392841579476865</v>
+        <v>97.713143340294323</v>
       </c>
       <c r="E293" s="3">
-        <v>94.621859886529748</v>
+        <v>93.863990358804699</v>
       </c>
       <c r="F293" s="4">
-        <v>98.125043105859561</v>
+        <v>97.096180982079389</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B294" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C294" s="15">
-        <v>95.844871428709354</v>
+        <v>97.164032103349044</v>
       </c>
       <c r="D294" s="3">
-        <v>96.841269764686757</v>
+        <v>98.392841579476865</v>
       </c>
       <c r="E294" s="3">
-        <v>93.874041216562603</v>
+        <v>94.621859886529748</v>
       </c>
       <c r="F294" s="4">
-        <v>96.675829050227108</v>
+        <v>98.125043105859561</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B295" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C295" s="15">
-        <v>95.873764212745286</v>
+        <v>95.844871428709354</v>
       </c>
       <c r="D295" s="3">
-        <v>98.443696865644199</v>
+        <v>96.841269764686757</v>
       </c>
       <c r="E295" s="3">
-        <v>88.592332728724585</v>
+        <v>93.874041216562603</v>
       </c>
       <c r="F295" s="4">
-        <v>97.196150833384934</v>
+        <v>96.675829050227108</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B296" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C296" s="15">
-        <v>97.199223207863241</v>
+        <v>95.873764212745286</v>
       </c>
       <c r="D296" s="3">
-        <v>98.922491593462297</v>
+        <v>98.443696865644199</v>
       </c>
       <c r="E296" s="3">
-        <v>92.57209071608267</v>
+        <v>88.592332728724585</v>
       </c>
       <c r="F296" s="4">
-        <v>98.11374861738075</v>
+        <v>97.196150833384934</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B297" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C297" s="15">
-        <v>95.443039274767031</v>
+        <v>97.199223207863241</v>
       </c>
       <c r="D297" s="3">
-        <v>97.02749863609813</v>
+        <v>98.922491593462297</v>
       </c>
       <c r="E297" s="3">
-        <v>91.064175285959109</v>
+        <v>92.57209071608267</v>
       </c>
       <c r="F297" s="4">
-        <v>96.385744846668743</v>
+        <v>98.11374861738075</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B298" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C298" s="15">
-        <v>98.339267252660107</v>
+        <v>95.443039274767031</v>
       </c>
       <c r="D298" s="3">
-        <v>99.784459671185118</v>
+        <v>97.02749863609813</v>
       </c>
       <c r="E298" s="3">
-        <v>94.351978832057398</v>
+        <v>91.064175285959109</v>
       </c>
       <c r="F298" s="4">
-        <v>99.639437171114011</v>
+        <v>96.385744846668743</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B299" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C299" s="15">
-        <v>97.392760707341836</v>
+        <v>98.339267252660107</v>
       </c>
       <c r="D299" s="3">
-        <v>99.418919783370399</v>
+        <v>99.784459671185118</v>
       </c>
       <c r="E299" s="3">
-        <v>91.183642062462866</v>
+        <v>94.351978832057398</v>
       </c>
       <c r="F299" s="4">
-        <v>98.186007429817039</v>
+        <v>99.639437171114011</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B300" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C300" s="15">
+        <v>97.392760707341836</v>
+      </c>
+      <c r="D300" s="3">
+        <v>99.418919783370399</v>
+      </c>
+      <c r="E300" s="3">
+        <v>91.183642062462866</v>
+      </c>
+      <c r="F300" s="4">
+        <v>98.186007429817039</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B301" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C300" s="15">
+      <c r="C301" s="15">
         <v>96.045474143024947</v>
       </c>
-      <c r="D300" s="3">
+      <c r="D301" s="3">
         <v>97.775563959497617</v>
       </c>
-      <c r="E300" s="3">
+      <c r="E301" s="3">
         <v>90.500943442300951</v>
       </c>
-      <c r="F300" s="4">
+      <c r="F301" s="4">
         <v>97.026645177869696</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A301" s="1">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A302" s="1">
         <v>1995</v>
       </c>
-      <c r="B301" s="1" t="s">
+      <c r="B302" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C301" s="15">
+      <c r="C302" s="15">
         <v>96.518813773254806</v>
       </c>
-      <c r="D301" s="3">
+      <c r="D302" s="3">
         <v>96.884157614454807</v>
       </c>
-      <c r="E301" s="3">
+      <c r="E302" s="3">
         <v>95.865285426693788</v>
       </c>
-      <c r="F301" s="4">
+      <c r="F302" s="4">
         <v>97.556119882377786</v>
-      </c>
-    </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B302" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C302" s="15">
-        <v>99.396286479401454</v>
-      </c>
-      <c r="D302" s="3">
-        <v>101.33055328784732</v>
-      </c>
-      <c r="E302" s="3">
-        <v>92.809716846978077</v>
-      </c>
-      <c r="F302" s="4">
-        <v>98.05135109014418</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B303" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C303" s="15">
-        <v>98.465593042075909</v>
+        <v>99.396286479401454</v>
       </c>
       <c r="D303" s="3">
-        <v>99.864498750920589</v>
+        <v>101.33055328784732</v>
       </c>
       <c r="E303" s="3">
-        <v>93.990387402910969</v>
+        <v>92.809716846978077</v>
       </c>
       <c r="F303" s="4">
-        <v>97.135612731081807</v>
+        <v>98.05135109014418</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B304" s="1" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C304" s="15">
-        <v>98.561116626488527</v>
+        <v>98.465593042075909</v>
       </c>
       <c r="D304" s="3">
-        <v>100.46803777379733</v>
+        <v>99.864498750920589</v>
       </c>
       <c r="E304" s="3">
-        <v>92.563459418897438</v>
+        <v>93.990387402910969</v>
       </c>
       <c r="F304" s="4">
-        <v>96.485827257877474</v>
+        <v>97.135612731081807</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B305" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C305" s="15">
-        <v>98.988906756111732</v>
+        <v>98.561116626488527</v>
       </c>
       <c r="D305" s="3">
-        <v>100.85060236109027</v>
+        <v>100.46803777379733</v>
       </c>
       <c r="E305" s="3">
-        <v>93.079926591399825</v>
+        <v>92.563459418897438</v>
       </c>
       <c r="F305" s="4">
-        <v>97.67115138500337</v>
+        <v>96.485827257877474</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B306" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C306" s="15">
-        <v>99.279539001083478</v>
+        <v>98.988906756111732</v>
       </c>
       <c r="D306" s="3">
-        <v>100.61309419924798</v>
+        <v>100.85060236109027</v>
       </c>
       <c r="E306" s="3">
-        <v>94.927867111851697</v>
+        <v>93.079926591399825</v>
       </c>
       <c r="F306" s="4">
-        <v>98.000846598457827</v>
+        <v>97.67115138500337</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B307" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C307" s="15">
-        <v>101.04737525007481</v>
+        <v>99.279539001083478</v>
       </c>
       <c r="D307" s="3">
-        <v>102.13671678925554</v>
+        <v>100.61309419924798</v>
       </c>
       <c r="E307" s="3">
-        <v>97.598678749491583</v>
+        <v>94.927867111851697</v>
       </c>
       <c r="F307" s="4">
-        <v>99.609370298933769</v>
+        <v>98.000846598457827</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B308" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C308" s="15">
-        <v>101.94700175915013</v>
+        <v>101.04737525007481</v>
       </c>
       <c r="D308" s="3">
-        <v>102.83102266996333</v>
+        <v>102.13671678925554</v>
       </c>
       <c r="E308" s="3">
-        <v>99.174643420679516</v>
+        <v>97.598678749491583</v>
       </c>
       <c r="F308" s="4">
-        <v>100.43980551670853</v>
+        <v>99.609370298933769</v>
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B309" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C309" s="15">
-        <v>99.803773919693555</v>
+        <v>101.94700175915013</v>
       </c>
       <c r="D309" s="3">
-        <v>101.62894476779603</v>
+        <v>102.83102266996333</v>
       </c>
       <c r="E309" s="3">
-        <v>93.620621540790125</v>
+        <v>99.174643420679516</v>
       </c>
       <c r="F309" s="4">
-        <v>98.512631693275907</v>
+        <v>100.43980551670853</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B310" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C310" s="15">
-        <v>100.83281460884201</v>
+        <v>99.803773919693555</v>
       </c>
       <c r="D310" s="3">
-        <v>102.73442794784886</v>
+        <v>101.62894476779603</v>
       </c>
       <c r="E310" s="3">
-        <v>94.505039211731884</v>
+        <v>93.620621540790125</v>
       </c>
       <c r="F310" s="4">
-        <v>99.30361253919645</v>
+        <v>98.512631693275907</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B311" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C311" s="15">
-        <v>102.03446148290111</v>
+        <v>100.83281460884201</v>
       </c>
       <c r="D311" s="3">
-        <v>103.5719842396495</v>
+        <v>102.73442794784886</v>
       </c>
       <c r="E311" s="3">
-        <v>96.606707440666526</v>
+        <v>94.505039211731884</v>
       </c>
       <c r="F311" s="4">
-        <v>100.47549995712234</v>
+        <v>99.30361253919645</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B312" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C312" s="15">
+        <v>102.03446148290111</v>
+      </c>
+      <c r="D312" s="3">
+        <v>103.5719842396495</v>
+      </c>
+      <c r="E312" s="3">
+        <v>96.606707440666526</v>
+      </c>
+      <c r="F312" s="4">
+        <v>100.47549995712234</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B313" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C312" s="15">
+      <c r="C313" s="15">
         <v>99.651725101092183</v>
       </c>
-      <c r="D312" s="3">
+      <c r="D313" s="3">
         <v>102.54946803558263</v>
       </c>
-      <c r="E312" s="3">
+      <c r="E313" s="3">
         <v>88.583448177262653</v>
       </c>
-      <c r="F312" s="4">
+      <c r="F313" s="4">
         <v>97.890088468264153</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A313" s="1">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A314" s="1">
         <v>1994</v>
       </c>
-      <c r="B313" s="1" t="s">
+      <c r="B314" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C313" s="15">
+      <c r="C314" s="15">
         <v>100</v>
       </c>
-      <c r="D313" s="3">
+      <c r="D314" s="3">
         <v>100</v>
       </c>
-      <c r="E313" s="3">
+      <c r="E314" s="3">
         <v>100</v>
       </c>
-      <c r="F313" s="4">
+      <c r="F314" s="4">
         <v>100</v>
       </c>
-    </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C314" s="3"/>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C315" s="3"/>
@@ -6175,6 +6185,9 @@
     </row>
     <row r="355" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C355" s="3"/>
+    </row>
+    <row r="356" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C356" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
